--- a/Data Sheets/New England Benthic Monitoring Data Sheets_v1.5.xlsx
+++ b/Data Sheets/New England Benthic Monitoring Data Sheets_v1.5.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="621">
   <si>
     <t>UENC</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -3473,6 +3473,9 @@
   </si>
   <si>
     <t>Added logger sheet</t>
+  </si>
+  <si>
+    <t>Changed print scaling</t>
   </si>
 </sst>
 </file>
@@ -5874,15 +5877,14 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5900,39 +5902,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -5942,6 +5911,58 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6011,87 +6032,53 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6104,15 +6091,72 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -6132,27 +6176,6 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6163,83 +6186,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="193">
@@ -6832,10 +6835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6902,6 +6905,14 @@
       </c>
       <c r="B8" t="s">
         <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="340">
+        <v>42222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -6935,42 +6946,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="388" t="s">
+      <c r="B1" s="389" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388" t="s">
+      <c r="C1" s="389"/>
+      <c r="D1" s="389" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="438" t="s">
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="432" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
-      <c r="J1" s="388" t="s">
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="389" t="s">
         <v>343</v>
       </c>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
       <c r="N1" s="94"/>
       <c r="O1" s="121"/>
     </row>
     <row r="2" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="438"/>
-      <c r="H2" s="438"/>
-      <c r="I2" s="438"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
       <c r="N2" s="94"/>
       <c r="O2" s="121"/>
     </row>
@@ -8939,7 +8950,7 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:J38"/>
+      <selection activeCell="C16" sqref="C16:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8952,38 +8963,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="388" t="s">
+      <c r="B1" s="389" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388" t="s">
+      <c r="C1" s="389"/>
+      <c r="D1" s="389" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="394" t="s">
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="395" t="s">
         <v>557</v>
       </c>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
+      <c r="K1" s="394"/>
       <c r="L1" s="225"/>
       <c r="M1" s="225"/>
       <c r="N1" s="225"/>
       <c r="O1" s="225"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
-      <c r="K2" s="393"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
       <c r="L2" s="225"/>
       <c r="M2" s="225"/>
       <c r="N2" s="225"/>
@@ -9021,22 +9032,22 @@
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="B5" s="226"/>
-      <c r="C5" s="389" t="s">
+      <c r="C5" s="390" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="390"/>
-      <c r="E5" s="391" t="s">
+      <c r="D5" s="391"/>
+      <c r="E5" s="392" t="s">
         <v>559</v>
       </c>
-      <c r="F5" s="392"/>
-      <c r="G5" s="389" t="s">
+      <c r="F5" s="393"/>
+      <c r="G5" s="390" t="s">
         <v>560</v>
       </c>
-      <c r="H5" s="390"/>
-      <c r="I5" s="391" t="s">
+      <c r="H5" s="391"/>
+      <c r="I5" s="392" t="s">
         <v>449</v>
       </c>
-      <c r="J5" s="392"/>
+      <c r="J5" s="393"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -9046,14 +9057,14 @@
       <c r="B6" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="C6" s="397"/>
-      <c r="D6" s="398"/>
-      <c r="E6" s="397"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="397"/>
-      <c r="H6" s="398"/>
-      <c r="I6" s="397"/>
-      <c r="J6" s="398"/>
+      <c r="C6" s="387"/>
+      <c r="D6" s="388"/>
+      <c r="E6" s="387"/>
+      <c r="F6" s="388"/>
+      <c r="G6" s="387"/>
+      <c r="H6" s="388"/>
+      <c r="I6" s="387"/>
+      <c r="J6" s="388"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -9063,14 +9074,14 @@
       <c r="B7" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="C7" s="395"/>
-      <c r="D7" s="396"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="396"/>
-      <c r="G7" s="395"/>
-      <c r="H7" s="396"/>
-      <c r="I7" s="395"/>
-      <c r="J7" s="396"/>
+      <c r="C7" s="385"/>
+      <c r="D7" s="386"/>
+      <c r="E7" s="385"/>
+      <c r="F7" s="386"/>
+      <c r="G7" s="385"/>
+      <c r="H7" s="386"/>
+      <c r="I7" s="385"/>
+      <c r="J7" s="386"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -9080,14 +9091,14 @@
       <c r="B8" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="C8" s="386"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="387"/>
-      <c r="G8" s="386"/>
-      <c r="H8" s="387"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="387"/>
+      <c r="C8" s="377"/>
+      <c r="D8" s="378"/>
+      <c r="E8" s="377"/>
+      <c r="F8" s="378"/>
+      <c r="G8" s="377"/>
+      <c r="H8" s="378"/>
+      <c r="I8" s="377"/>
+      <c r="J8" s="378"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -9097,14 +9108,14 @@
       <c r="B9" s="98" t="s">
         <v>551</v>
       </c>
-      <c r="C9" s="386"/>
-      <c r="D9" s="387"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="387"/>
-      <c r="G9" s="386"/>
-      <c r="H9" s="387"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="387"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="378"/>
+      <c r="E9" s="377"/>
+      <c r="F9" s="378"/>
+      <c r="G9" s="377"/>
+      <c r="H9" s="378"/>
+      <c r="I9" s="377"/>
+      <c r="J9" s="378"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -9114,215 +9125,215 @@
       <c r="B10" s="98" t="s">
         <v>552</v>
       </c>
-      <c r="C10" s="386"/>
-      <c r="D10" s="387"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="387"/>
-      <c r="G10" s="386"/>
-      <c r="H10" s="387"/>
-      <c r="I10" s="386"/>
-      <c r="J10" s="387"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="378"/>
+      <c r="E10" s="377"/>
+      <c r="F10" s="378"/>
+      <c r="G10" s="377"/>
+      <c r="H10" s="378"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="B11" s="101" t="s">
         <v>553</v>
       </c>
-      <c r="C11" s="386"/>
-      <c r="D11" s="387"/>
-      <c r="E11" s="386"/>
-      <c r="F11" s="387"/>
-      <c r="G11" s="386"/>
-      <c r="H11" s="387"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="378"/>
+      <c r="E11" s="377"/>
+      <c r="F11" s="378"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="378"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="378"/>
     </row>
     <row r="12" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="B12" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="C12" s="395"/>
-      <c r="D12" s="396"/>
-      <c r="E12" s="395"/>
-      <c r="F12" s="396"/>
-      <c r="G12" s="395"/>
-      <c r="H12" s="396"/>
-      <c r="I12" s="395"/>
-      <c r="J12" s="396"/>
+      <c r="C12" s="385"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="385"/>
+      <c r="F12" s="386"/>
+      <c r="G12" s="385"/>
+      <c r="H12" s="386"/>
+      <c r="I12" s="385"/>
+      <c r="J12" s="386"/>
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="B13" s="98" t="s">
         <v>555</v>
       </c>
-      <c r="C13" s="386"/>
-      <c r="D13" s="387"/>
-      <c r="E13" s="386"/>
-      <c r="F13" s="387"/>
-      <c r="G13" s="386"/>
-      <c r="H13" s="387"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="387"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="378"/>
+      <c r="E13" s="377"/>
+      <c r="F13" s="378"/>
+      <c r="G13" s="377"/>
+      <c r="H13" s="378"/>
+      <c r="I13" s="377"/>
+      <c r="J13" s="378"/>
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A14" s="227"/>
       <c r="B14" s="98" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="386"/>
-      <c r="D14" s="387"/>
-      <c r="E14" s="386"/>
-      <c r="F14" s="387"/>
-      <c r="G14" s="386"/>
-      <c r="H14" s="387"/>
-      <c r="I14" s="386"/>
-      <c r="J14" s="387"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="378"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="378"/>
+      <c r="G14" s="377"/>
+      <c r="H14" s="378"/>
+      <c r="I14" s="377"/>
+      <c r="J14" s="378"/>
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A15" s="227"/>
       <c r="B15" s="339" t="s">
         <v>602</v>
       </c>
-      <c r="C15" s="386"/>
-      <c r="D15" s="387"/>
-      <c r="E15" s="386"/>
-      <c r="F15" s="387"/>
-      <c r="G15" s="386"/>
-      <c r="H15" s="387"/>
-      <c r="I15" s="386"/>
-      <c r="J15" s="387"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="378"/>
+      <c r="E15" s="377"/>
+      <c r="F15" s="378"/>
+      <c r="G15" s="377"/>
+      <c r="H15" s="378"/>
+      <c r="I15" s="377"/>
+      <c r="J15" s="378"/>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A16" s="227"/>
-      <c r="B16" s="373" t="s">
+      <c r="B16" s="396" t="s">
         <v>556</v>
       </c>
-      <c r="C16" s="376"/>
-      <c r="D16" s="377"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="377"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="377"/>
-      <c r="I16" s="376"/>
-      <c r="J16" s="382"/>
+      <c r="C16" s="379"/>
+      <c r="D16" s="380"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="380"/>
+      <c r="I16" s="379"/>
+      <c r="J16" s="399"/>
     </row>
     <row r="17" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A17" s="227"/>
-      <c r="B17" s="374"/>
-      <c r="C17" s="378"/>
-      <c r="D17" s="379"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="379"/>
-      <c r="G17" s="378"/>
-      <c r="H17" s="379"/>
-      <c r="I17" s="378"/>
-      <c r="J17" s="383"/>
+      <c r="B17" s="397"/>
+      <c r="C17" s="381"/>
+      <c r="D17" s="382"/>
+      <c r="E17" s="381"/>
+      <c r="F17" s="382"/>
+      <c r="G17" s="381"/>
+      <c r="H17" s="382"/>
+      <c r="I17" s="381"/>
+      <c r="J17" s="400"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A18" s="227"/>
-      <c r="B18" s="374"/>
-      <c r="C18" s="378"/>
-      <c r="D18" s="379"/>
-      <c r="E18" s="378"/>
-      <c r="F18" s="379"/>
-      <c r="G18" s="378"/>
-      <c r="H18" s="379"/>
-      <c r="I18" s="378"/>
-      <c r="J18" s="383"/>
+      <c r="B18" s="397"/>
+      <c r="C18" s="381"/>
+      <c r="D18" s="382"/>
+      <c r="E18" s="381"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="381"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="381"/>
+      <c r="J18" s="400"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A19" s="227"/>
-      <c r="B19" s="374"/>
-      <c r="C19" s="378"/>
-      <c r="D19" s="379"/>
-      <c r="E19" s="378"/>
-      <c r="F19" s="379"/>
-      <c r="G19" s="378"/>
-      <c r="H19" s="379"/>
-      <c r="I19" s="378"/>
-      <c r="J19" s="383"/>
+      <c r="B19" s="397"/>
+      <c r="C19" s="381"/>
+      <c r="D19" s="382"/>
+      <c r="E19" s="381"/>
+      <c r="F19" s="382"/>
+      <c r="G19" s="381"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="381"/>
+      <c r="J19" s="400"/>
     </row>
     <row r="20" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A20" s="227"/>
-      <c r="B20" s="374"/>
-      <c r="C20" s="378"/>
-      <c r="D20" s="379"/>
-      <c r="E20" s="378"/>
-      <c r="F20" s="379"/>
-      <c r="G20" s="378"/>
-      <c r="H20" s="379"/>
-      <c r="I20" s="378"/>
-      <c r="J20" s="383"/>
+      <c r="B20" s="397"/>
+      <c r="C20" s="381"/>
+      <c r="D20" s="382"/>
+      <c r="E20" s="381"/>
+      <c r="F20" s="382"/>
+      <c r="G20" s="381"/>
+      <c r="H20" s="382"/>
+      <c r="I20" s="381"/>
+      <c r="J20" s="400"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A21" s="227"/>
-      <c r="B21" s="374"/>
-      <c r="C21" s="378"/>
-      <c r="D21" s="379"/>
-      <c r="E21" s="378"/>
-      <c r="F21" s="379"/>
-      <c r="G21" s="378"/>
-      <c r="H21" s="379"/>
-      <c r="I21" s="378"/>
-      <c r="J21" s="383"/>
+      <c r="B21" s="397"/>
+      <c r="C21" s="381"/>
+      <c r="D21" s="382"/>
+      <c r="E21" s="381"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="381"/>
+      <c r="H21" s="382"/>
+      <c r="I21" s="381"/>
+      <c r="J21" s="400"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A22" s="227"/>
-      <c r="B22" s="374"/>
-      <c r="C22" s="378"/>
-      <c r="D22" s="379"/>
-      <c r="E22" s="378"/>
-      <c r="F22" s="379"/>
-      <c r="G22" s="378"/>
-      <c r="H22" s="379"/>
-      <c r="I22" s="378"/>
-      <c r="J22" s="383"/>
+      <c r="B22" s="397"/>
+      <c r="C22" s="381"/>
+      <c r="D22" s="382"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="381"/>
+      <c r="H22" s="382"/>
+      <c r="I22" s="381"/>
+      <c r="J22" s="400"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A23" s="227"/>
-      <c r="B23" s="374"/>
-      <c r="C23" s="378"/>
-      <c r="D23" s="379"/>
-      <c r="E23" s="378"/>
-      <c r="F23" s="379"/>
-      <c r="G23" s="378"/>
-      <c r="H23" s="379"/>
-      <c r="I23" s="378"/>
-      <c r="J23" s="383"/>
+      <c r="B23" s="397"/>
+      <c r="C23" s="381"/>
+      <c r="D23" s="382"/>
+      <c r="E23" s="381"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="381"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="381"/>
+      <c r="J23" s="400"/>
     </row>
     <row r="24" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A24" s="227"/>
-      <c r="B24" s="374"/>
-      <c r="C24" s="378"/>
-      <c r="D24" s="379"/>
-      <c r="E24" s="378"/>
-      <c r="F24" s="379"/>
-      <c r="G24" s="378"/>
-      <c r="H24" s="379"/>
-      <c r="I24" s="378"/>
-      <c r="J24" s="383"/>
+      <c r="B24" s="397"/>
+      <c r="C24" s="381"/>
+      <c r="D24" s="382"/>
+      <c r="E24" s="381"/>
+      <c r="F24" s="382"/>
+      <c r="G24" s="381"/>
+      <c r="H24" s="382"/>
+      <c r="I24" s="381"/>
+      <c r="J24" s="400"/>
     </row>
     <row r="25" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A25" s="227"/>
-      <c r="B25" s="374"/>
-      <c r="C25" s="378"/>
-      <c r="D25" s="379"/>
-      <c r="E25" s="378"/>
-      <c r="F25" s="379"/>
-      <c r="G25" s="378"/>
-      <c r="H25" s="379"/>
-      <c r="I25" s="378"/>
-      <c r="J25" s="383"/>
+      <c r="B25" s="397"/>
+      <c r="C25" s="381"/>
+      <c r="D25" s="382"/>
+      <c r="E25" s="381"/>
+      <c r="F25" s="382"/>
+      <c r="G25" s="381"/>
+      <c r="H25" s="382"/>
+      <c r="I25" s="381"/>
+      <c r="J25" s="400"/>
     </row>
     <row r="26" spans="1:14" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A26" s="227"/>
-      <c r="B26" s="375"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="381"/>
-      <c r="E26" s="380"/>
-      <c r="F26" s="381"/>
-      <c r="G26" s="380"/>
-      <c r="H26" s="381"/>
-      <c r="I26" s="380"/>
-      <c r="J26" s="384"/>
+      <c r="B26" s="398"/>
+      <c r="C26" s="383"/>
+      <c r="D26" s="384"/>
+      <c r="E26" s="383"/>
+      <c r="F26" s="384"/>
+      <c r="G26" s="383"/>
+      <c r="H26" s="384"/>
+      <c r="I26" s="383"/>
+      <c r="J26" s="401"/>
     </row>
     <row r="27" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="B27"/>
@@ -9992,11 +10003,37 @@
     <row r="83" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="E16:F26"/>
+    <mergeCell ref="G16:H26"/>
+    <mergeCell ref="I16:J26"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -10013,37 +10050,11 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="E16:F26"/>
-    <mergeCell ref="G16:H26"/>
-    <mergeCell ref="I16:J26"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C16:D26"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
@@ -10069,7 +10080,7 @@
   </sheetPr>
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A21" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -10083,38 +10094,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="388" t="s">
+      <c r="B1" s="389" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388" t="s">
+      <c r="C1" s="389"/>
+      <c r="D1" s="389" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="394" t="s">
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="395" t="s">
         <v>557</v>
       </c>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
+      <c r="K1" s="394"/>
       <c r="L1" s="372"/>
       <c r="M1" s="372"/>
       <c r="N1" s="372"/>
       <c r="O1" s="372"/>
     </row>
     <row r="2" spans="1:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
-      <c r="K2" s="393"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
       <c r="L2" s="372"/>
       <c r="M2" s="372"/>
       <c r="N2" s="372"/>
@@ -10181,251 +10192,251 @@
       <c r="N6"/>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="B7" s="535"/>
-      <c r="C7" s="399" t="s">
+      <c r="B7" s="374"/>
+      <c r="C7" s="409" t="s">
         <v>613</v>
       </c>
-      <c r="D7" s="400"/>
-      <c r="E7" s="401" t="s">
+      <c r="D7" s="410"/>
+      <c r="E7" s="411" t="s">
         <v>614</v>
       </c>
-      <c r="F7" s="402"/>
-      <c r="G7" s="399" t="s">
+      <c r="F7" s="412"/>
+      <c r="G7" s="409" t="s">
         <v>616</v>
       </c>
-      <c r="H7" s="400"/>
-      <c r="I7" s="399" t="s">
+      <c r="H7" s="410"/>
+      <c r="I7" s="409" t="s">
         <v>615</v>
       </c>
-      <c r="J7" s="400"/>
+      <c r="J7" s="410"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
     </row>
     <row r="8" spans="1:15" s="9" customFormat="1" ht="20" customHeight="1">
-      <c r="B8" s="536" t="s">
+      <c r="B8" s="375" t="s">
         <v>602</v>
       </c>
-      <c r="C8" s="534"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="387"/>
-      <c r="G8" s="386"/>
-      <c r="H8" s="387"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="387"/>
+      <c r="C8" s="407"/>
+      <c r="D8" s="378"/>
+      <c r="E8" s="377"/>
+      <c r="F8" s="378"/>
+      <c r="G8" s="377"/>
+      <c r="H8" s="378"/>
+      <c r="I8" s="377"/>
+      <c r="J8" s="378"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
     </row>
     <row r="9" spans="1:15" s="9" customFormat="1" ht="30">
-      <c r="B9" s="537" t="s">
+      <c r="B9" s="376" t="s">
         <v>617</v>
       </c>
-      <c r="C9" s="534"/>
-      <c r="D9" s="387"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="387"/>
-      <c r="G9" s="386"/>
-      <c r="H9" s="387"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="387"/>
+      <c r="C9" s="407"/>
+      <c r="D9" s="378"/>
+      <c r="E9" s="377"/>
+      <c r="F9" s="378"/>
+      <c r="G9" s="377"/>
+      <c r="H9" s="378"/>
+      <c r="I9" s="377"/>
+      <c r="J9" s="378"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
     </row>
     <row r="10" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="B10" s="536" t="s">
+      <c r="B10" s="375" t="s">
         <v>618</v>
       </c>
-      <c r="C10" s="534"/>
-      <c r="D10" s="387"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="387"/>
-      <c r="G10" s="386"/>
-      <c r="H10" s="387"/>
-      <c r="I10" s="386"/>
-      <c r="J10" s="387"/>
+      <c r="C10" s="407"/>
+      <c r="D10" s="378"/>
+      <c r="E10" s="377"/>
+      <c r="F10" s="378"/>
+      <c r="G10" s="377"/>
+      <c r="H10" s="378"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="378"/>
     </row>
     <row r="11" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="B11" s="536" t="s">
+      <c r="B11" s="375" t="s">
         <v>450</v>
       </c>
-      <c r="C11" s="534"/>
-      <c r="D11" s="387"/>
-      <c r="E11" s="386"/>
-      <c r="F11" s="387"/>
-      <c r="G11" s="386"/>
-      <c r="H11" s="387"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387"/>
+      <c r="C11" s="407"/>
+      <c r="D11" s="378"/>
+      <c r="E11" s="377"/>
+      <c r="F11" s="378"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="378"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="378"/>
     </row>
     <row r="12" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="B12" s="536" t="s">
+      <c r="B12" s="375" t="s">
         <v>546</v>
       </c>
-      <c r="C12" s="538"/>
-      <c r="D12" s="474"/>
-      <c r="E12" s="538"/>
-      <c r="F12" s="474"/>
-      <c r="G12" s="538"/>
-      <c r="H12" s="474"/>
-      <c r="I12" s="538"/>
-      <c r="J12" s="474"/>
+      <c r="C12" s="408"/>
+      <c r="D12" s="403"/>
+      <c r="E12" s="408"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="408"/>
+      <c r="H12" s="403"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="403"/>
     </row>
     <row r="13" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="530"/>
-      <c r="B13" s="536" t="s">
+      <c r="A13" s="373"/>
+      <c r="B13" s="375" t="s">
         <v>547</v>
       </c>
-      <c r="C13" s="539"/>
-      <c r="D13" s="539"/>
-      <c r="E13" s="539"/>
-      <c r="F13" s="539"/>
-      <c r="G13" s="539"/>
-      <c r="H13" s="539"/>
-      <c r="I13" s="539"/>
-      <c r="J13" s="539"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="402"/>
+      <c r="H13" s="402"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="402"/>
     </row>
     <row r="14" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A14" s="227"/>
-      <c r="B14" s="531" t="s">
+      <c r="B14" s="404" t="s">
         <v>545</v>
       </c>
-      <c r="C14" s="474"/>
-      <c r="D14" s="474"/>
-      <c r="E14" s="474"/>
-      <c r="F14" s="474"/>
-      <c r="G14" s="474"/>
-      <c r="H14" s="474"/>
-      <c r="I14" s="474"/>
-      <c r="J14" s="474"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="403"/>
+      <c r="E14" s="403"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="403"/>
+      <c r="H14" s="403"/>
+      <c r="I14" s="403"/>
+      <c r="J14" s="403"/>
     </row>
     <row r="15" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A15" s="227"/>
-      <c r="B15" s="532"/>
-      <c r="C15" s="474"/>
-      <c r="D15" s="474"/>
-      <c r="E15" s="474"/>
-      <c r="F15" s="474"/>
-      <c r="G15" s="474"/>
-      <c r="H15" s="474"/>
-      <c r="I15" s="474"/>
-      <c r="J15" s="474"/>
+      <c r="B15" s="405"/>
+      <c r="C15" s="403"/>
+      <c r="D15" s="403"/>
+      <c r="E15" s="403"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="403"/>
+      <c r="H15" s="403"/>
+      <c r="I15" s="403"/>
+      <c r="J15" s="403"/>
     </row>
     <row r="16" spans="1:15" s="9" customFormat="1" ht="15">
       <c r="A16" s="227"/>
-      <c r="B16" s="532"/>
-      <c r="C16" s="474"/>
-      <c r="D16" s="474"/>
-      <c r="E16" s="474"/>
-      <c r="F16" s="474"/>
-      <c r="G16" s="474"/>
-      <c r="H16" s="474"/>
-      <c r="I16" s="474"/>
-      <c r="J16" s="474"/>
+      <c r="B16" s="405"/>
+      <c r="C16" s="403"/>
+      <c r="D16" s="403"/>
+      <c r="E16" s="403"/>
+      <c r="F16" s="403"/>
+      <c r="G16" s="403"/>
+      <c r="H16" s="403"/>
+      <c r="I16" s="403"/>
+      <c r="J16" s="403"/>
     </row>
     <row r="17" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A17" s="227"/>
-      <c r="B17" s="532"/>
-      <c r="C17" s="474"/>
-      <c r="D17" s="474"/>
-      <c r="E17" s="474"/>
-      <c r="F17" s="474"/>
-      <c r="G17" s="474"/>
-      <c r="H17" s="474"/>
-      <c r="I17" s="474"/>
-      <c r="J17" s="474"/>
+      <c r="B17" s="405"/>
+      <c r="C17" s="403"/>
+      <c r="D17" s="403"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="403"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="403"/>
+      <c r="J17" s="403"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A18" s="227"/>
-      <c r="B18" s="532"/>
-      <c r="C18" s="474"/>
-      <c r="D18" s="474"/>
-      <c r="E18" s="474"/>
-      <c r="F18" s="474"/>
-      <c r="G18" s="474"/>
-      <c r="H18" s="474"/>
-      <c r="I18" s="474"/>
-      <c r="J18" s="474"/>
+      <c r="B18" s="405"/>
+      <c r="C18" s="403"/>
+      <c r="D18" s="403"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="403"/>
+      <c r="H18" s="403"/>
+      <c r="I18" s="403"/>
+      <c r="J18" s="403"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A19" s="227"/>
-      <c r="B19" s="532"/>
-      <c r="C19" s="474"/>
-      <c r="D19" s="474"/>
-      <c r="E19" s="474"/>
-      <c r="F19" s="474"/>
-      <c r="G19" s="474"/>
-      <c r="H19" s="474"/>
-      <c r="I19" s="474"/>
-      <c r="J19" s="474"/>
+      <c r="B19" s="405"/>
+      <c r="C19" s="403"/>
+      <c r="D19" s="403"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="403"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="403"/>
+      <c r="J19" s="403"/>
     </row>
     <row r="20" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A20" s="227"/>
-      <c r="B20" s="532"/>
-      <c r="C20" s="474"/>
-      <c r="D20" s="474"/>
-      <c r="E20" s="474"/>
-      <c r="F20" s="474"/>
-      <c r="G20" s="474"/>
-      <c r="H20" s="474"/>
-      <c r="I20" s="474"/>
-      <c r="J20" s="474"/>
+      <c r="B20" s="405"/>
+      <c r="C20" s="403"/>
+      <c r="D20" s="403"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
+      <c r="G20" s="403"/>
+      <c r="H20" s="403"/>
+      <c r="I20" s="403"/>
+      <c r="J20" s="403"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A21" s="227"/>
-      <c r="B21" s="532"/>
-      <c r="C21" s="474"/>
-      <c r="D21" s="474"/>
-      <c r="E21" s="474"/>
-      <c r="F21" s="474"/>
-      <c r="G21" s="474"/>
-      <c r="H21" s="474"/>
-      <c r="I21" s="474"/>
-      <c r="J21" s="474"/>
+      <c r="B21" s="405"/>
+      <c r="C21" s="403"/>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="403"/>
+      <c r="H21" s="403"/>
+      <c r="I21" s="403"/>
+      <c r="J21" s="403"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A22" s="227"/>
-      <c r="B22" s="532"/>
-      <c r="C22" s="474"/>
-      <c r="D22" s="474"/>
-      <c r="E22" s="474"/>
-      <c r="F22" s="474"/>
-      <c r="G22" s="474"/>
-      <c r="H22" s="474"/>
-      <c r="I22" s="474"/>
-      <c r="J22" s="474"/>
+      <c r="B22" s="405"/>
+      <c r="C22" s="403"/>
+      <c r="D22" s="403"/>
+      <c r="E22" s="403"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="403"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="403"/>
+      <c r="J22" s="403"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A23" s="227"/>
-      <c r="B23" s="532"/>
-      <c r="C23" s="474"/>
-      <c r="D23" s="474"/>
-      <c r="E23" s="474"/>
-      <c r="F23" s="474"/>
-      <c r="G23" s="474"/>
-      <c r="H23" s="474"/>
-      <c r="I23" s="474"/>
-      <c r="J23" s="474"/>
+      <c r="B23" s="405"/>
+      <c r="C23" s="403"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="403"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="403"/>
+      <c r="H23" s="403"/>
+      <c r="I23" s="403"/>
+      <c r="J23" s="403"/>
     </row>
     <row r="24" spans="1:14" s="9" customFormat="1" ht="15">
       <c r="A24" s="227"/>
-      <c r="B24" s="533"/>
-      <c r="C24" s="474"/>
-      <c r="D24" s="474"/>
-      <c r="E24" s="474"/>
-      <c r="F24" s="474"/>
-      <c r="G24" s="474"/>
-      <c r="H24" s="474"/>
-      <c r="I24" s="474"/>
-      <c r="J24" s="474"/>
+      <c r="B24" s="406"/>
+      <c r="C24" s="403"/>
+      <c r="D24" s="403"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="403"/>
+      <c r="H24" s="403"/>
+      <c r="I24" s="403"/>
+      <c r="J24" s="403"/>
     </row>
     <row r="25" spans="1:14" s="9" customFormat="1" ht="15">
-      <c r="A25" s="530"/>
+      <c r="A25" s="373"/>
       <c r="B25" s="14"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -11110,11 +11121,25 @@
     <row r="82" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C14:D24"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="B14:B24"/>
     <mergeCell ref="E14:F24"/>
     <mergeCell ref="G14:H24"/>
@@ -11127,25 +11152,11 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:D24"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
@@ -11165,11 +11176,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:CX107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="AE97" sqref="AE97"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.5" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -11192,57 +11205,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1">
-      <c r="A1" s="403" t="s">
+      <c r="A1" s="413" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403" t="s">
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="413"/>
+      <c r="F1" s="413"/>
+      <c r="G1" s="413"/>
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="413"/>
+      <c r="K1" s="413" t="s">
         <v>346</v>
       </c>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
-      <c r="N1" s="403"/>
-      <c r="O1" s="403"/>
-      <c r="P1" s="403"/>
-      <c r="Q1" s="403"/>
-      <c r="R1" s="403"/>
-      <c r="S1" s="403"/>
-      <c r="T1" s="403"/>
-      <c r="U1" s="403"/>
-      <c r="V1" s="403" t="s">
+      <c r="L1" s="413"/>
+      <c r="M1" s="413"/>
+      <c r="N1" s="413"/>
+      <c r="O1" s="413"/>
+      <c r="P1" s="413"/>
+      <c r="Q1" s="413"/>
+      <c r="R1" s="413"/>
+      <c r="S1" s="413"/>
+      <c r="T1" s="413"/>
+      <c r="U1" s="413"/>
+      <c r="V1" s="413" t="s">
         <v>348</v>
       </c>
-      <c r="W1" s="403"/>
-      <c r="X1" s="403"/>
-      <c r="Y1" s="403"/>
-      <c r="Z1" s="403"/>
-      <c r="AA1" s="403"/>
-      <c r="AB1" s="403"/>
-      <c r="AC1" s="403"/>
-      <c r="AD1" s="403"/>
-      <c r="AE1" s="403"/>
-      <c r="AF1" s="403"/>
-      <c r="AG1" s="403" t="s">
+      <c r="W1" s="413"/>
+      <c r="X1" s="413"/>
+      <c r="Y1" s="413"/>
+      <c r="Z1" s="413"/>
+      <c r="AA1" s="413"/>
+      <c r="AB1" s="413"/>
+      <c r="AC1" s="413"/>
+      <c r="AD1" s="413"/>
+      <c r="AE1" s="413"/>
+      <c r="AF1" s="413"/>
+      <c r="AG1" s="413" t="s">
         <v>349</v>
       </c>
-      <c r="AH1" s="403"/>
-      <c r="AI1" s="403"/>
-      <c r="AJ1" s="403"/>
-      <c r="AK1" s="403"/>
-      <c r="AL1" s="403"/>
-      <c r="AM1" s="403"/>
-      <c r="AN1" s="403"/>
-      <c r="AO1" s="403"/>
-      <c r="AP1" s="403"/>
-      <c r="AQ1" s="403"/>
+      <c r="AH1" s="413"/>
+      <c r="AI1" s="413"/>
+      <c r="AJ1" s="413"/>
+      <c r="AK1" s="413"/>
+      <c r="AL1" s="413"/>
+      <c r="AM1" s="413"/>
+      <c r="AN1" s="413"/>
+      <c r="AO1" s="413"/>
+      <c r="AP1" s="413"/>
+      <c r="AQ1" s="413"/>
       <c r="AR1" s="67"/>
       <c r="AS1" s="67"/>
       <c r="AT1" s="67"/>
@@ -11259,49 +11272,49 @@
       <c r="BD1" s="67"/>
     </row>
     <row r="2" spans="1:58" ht="7.5" customHeight="1">
-      <c r="A2" s="403"/>
-      <c r="B2" s="403"/>
-      <c r="C2" s="403"/>
-      <c r="D2" s="403"/>
-      <c r="E2" s="403"/>
-      <c r="F2" s="403"/>
-      <c r="G2" s="403"/>
-      <c r="H2" s="403"/>
-      <c r="I2" s="403"/>
-      <c r="J2" s="403"/>
-      <c r="K2" s="403"/>
-      <c r="L2" s="403"/>
-      <c r="M2" s="403"/>
-      <c r="N2" s="403"/>
-      <c r="O2" s="403"/>
-      <c r="P2" s="403"/>
-      <c r="Q2" s="403"/>
-      <c r="R2" s="403"/>
-      <c r="S2" s="403"/>
-      <c r="T2" s="403"/>
-      <c r="U2" s="403"/>
-      <c r="V2" s="403"/>
-      <c r="W2" s="403"/>
-      <c r="X2" s="403"/>
-      <c r="Y2" s="403"/>
-      <c r="Z2" s="403"/>
-      <c r="AA2" s="403"/>
-      <c r="AB2" s="403"/>
-      <c r="AC2" s="403"/>
-      <c r="AD2" s="403"/>
-      <c r="AE2" s="403"/>
-      <c r="AF2" s="403"/>
-      <c r="AG2" s="403"/>
-      <c r="AH2" s="403"/>
-      <c r="AI2" s="403"/>
-      <c r="AJ2" s="403"/>
-      <c r="AK2" s="403"/>
-      <c r="AL2" s="403"/>
-      <c r="AM2" s="403"/>
-      <c r="AN2" s="403"/>
-      <c r="AO2" s="403"/>
-      <c r="AP2" s="403"/>
-      <c r="AQ2" s="403"/>
+      <c r="A2" s="413"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="413"/>
+      <c r="N2" s="413"/>
+      <c r="O2" s="413"/>
+      <c r="P2" s="413"/>
+      <c r="Q2" s="413"/>
+      <c r="R2" s="413"/>
+      <c r="S2" s="413"/>
+      <c r="T2" s="413"/>
+      <c r="U2" s="413"/>
+      <c r="V2" s="413"/>
+      <c r="W2" s="413"/>
+      <c r="X2" s="413"/>
+      <c r="Y2" s="413"/>
+      <c r="Z2" s="413"/>
+      <c r="AA2" s="413"/>
+      <c r="AB2" s="413"/>
+      <c r="AC2" s="413"/>
+      <c r="AD2" s="413"/>
+      <c r="AE2" s="413"/>
+      <c r="AF2" s="413"/>
+      <c r="AG2" s="413"/>
+      <c r="AH2" s="413"/>
+      <c r="AI2" s="413"/>
+      <c r="AJ2" s="413"/>
+      <c r="AK2" s="413"/>
+      <c r="AL2" s="413"/>
+      <c r="AM2" s="413"/>
+      <c r="AN2" s="413"/>
+      <c r="AO2" s="413"/>
+      <c r="AP2" s="413"/>
+      <c r="AQ2" s="413"/>
       <c r="AS2" s="29" t="s">
         <v>189</v>
       </c>
@@ -11310,49 +11323,49 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A3" s="404"/>
-      <c r="B3" s="404"/>
-      <c r="C3" s="404"/>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="404"/>
-      <c r="G3" s="404"/>
-      <c r="H3" s="404"/>
-      <c r="I3" s="404"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
-      <c r="N3" s="404"/>
-      <c r="O3" s="404"/>
-      <c r="P3" s="404"/>
-      <c r="Q3" s="404"/>
-      <c r="R3" s="404"/>
-      <c r="S3" s="404"/>
-      <c r="T3" s="404"/>
-      <c r="U3" s="404"/>
-      <c r="V3" s="404"/>
-      <c r="W3" s="404"/>
-      <c r="X3" s="404"/>
-      <c r="Y3" s="404"/>
-      <c r="Z3" s="404"/>
-      <c r="AA3" s="404"/>
-      <c r="AB3" s="404"/>
-      <c r="AC3" s="404"/>
-      <c r="AD3" s="404"/>
-      <c r="AE3" s="404"/>
-      <c r="AF3" s="404"/>
-      <c r="AG3" s="403"/>
-      <c r="AH3" s="403"/>
-      <c r="AI3" s="403"/>
-      <c r="AJ3" s="403"/>
-      <c r="AK3" s="403"/>
-      <c r="AL3" s="403"/>
-      <c r="AM3" s="403"/>
-      <c r="AN3" s="403"/>
-      <c r="AO3" s="403"/>
-      <c r="AP3" s="403"/>
-      <c r="AQ3" s="403"/>
+      <c r="A3" s="414"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="414"/>
+      <c r="H3" s="414"/>
+      <c r="I3" s="414"/>
+      <c r="J3" s="414"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="414"/>
+      <c r="M3" s="414"/>
+      <c r="N3" s="414"/>
+      <c r="O3" s="414"/>
+      <c r="P3" s="414"/>
+      <c r="Q3" s="414"/>
+      <c r="R3" s="414"/>
+      <c r="S3" s="414"/>
+      <c r="T3" s="414"/>
+      <c r="U3" s="414"/>
+      <c r="V3" s="414"/>
+      <c r="W3" s="414"/>
+      <c r="X3" s="414"/>
+      <c r="Y3" s="414"/>
+      <c r="Z3" s="414"/>
+      <c r="AA3" s="414"/>
+      <c r="AB3" s="414"/>
+      <c r="AC3" s="414"/>
+      <c r="AD3" s="414"/>
+      <c r="AE3" s="414"/>
+      <c r="AF3" s="414"/>
+      <c r="AG3" s="413"/>
+      <c r="AH3" s="413"/>
+      <c r="AI3" s="413"/>
+      <c r="AJ3" s="413"/>
+      <c r="AK3" s="413"/>
+      <c r="AL3" s="413"/>
+      <c r="AM3" s="413"/>
+      <c r="AN3" s="413"/>
+      <c r="AO3" s="413"/>
+      <c r="AP3" s="413"/>
+      <c r="AQ3" s="413"/>
       <c r="AS3" s="21" t="s">
         <v>289</v>
       </c>
@@ -11373,55 +11386,55 @@
       <c r="BF3" s="67"/>
     </row>
     <row r="4" spans="1:58" ht="7.5" customHeight="1" thickTop="1">
-      <c r="A4" s="419" t="s">
+      <c r="A4" s="429" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="419"/>
-      <c r="C4" s="419"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
-      <c r="H4" s="419"/>
-      <c r="I4" s="419"/>
-      <c r="J4" s="419"/>
-      <c r="K4" s="419"/>
-      <c r="L4" s="419"/>
-      <c r="M4" s="419"/>
-      <c r="N4" s="419"/>
-      <c r="O4" s="419"/>
-      <c r="P4" s="419"/>
-      <c r="Q4" s="419"/>
-      <c r="R4" s="419"/>
-      <c r="S4" s="419" t="s">
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
+      <c r="J4" s="429"/>
+      <c r="K4" s="429"/>
+      <c r="L4" s="429"/>
+      <c r="M4" s="429"/>
+      <c r="N4" s="429"/>
+      <c r="O4" s="429"/>
+      <c r="P4" s="429"/>
+      <c r="Q4" s="429"/>
+      <c r="R4" s="429"/>
+      <c r="S4" s="429" t="s">
         <v>428</v>
       </c>
-      <c r="T4" s="419"/>
-      <c r="U4" s="419"/>
-      <c r="V4" s="419"/>
-      <c r="W4" s="419"/>
-      <c r="X4" s="419"/>
-      <c r="Y4" s="419"/>
-      <c r="Z4" s="419"/>
-      <c r="AA4" s="419"/>
-      <c r="AB4" s="419"/>
-      <c r="AC4" s="419"/>
-      <c r="AD4" s="419"/>
-      <c r="AE4" s="419"/>
-      <c r="AF4" s="419"/>
-      <c r="AG4" s="419"/>
-      <c r="AH4" s="419"/>
-      <c r="AI4" s="419" t="s">
+      <c r="T4" s="429"/>
+      <c r="U4" s="429"/>
+      <c r="V4" s="429"/>
+      <c r="W4" s="429"/>
+      <c r="X4" s="429"/>
+      <c r="Y4" s="429"/>
+      <c r="Z4" s="429"/>
+      <c r="AA4" s="429"/>
+      <c r="AB4" s="429"/>
+      <c r="AC4" s="429"/>
+      <c r="AD4" s="429"/>
+      <c r="AE4" s="429"/>
+      <c r="AF4" s="429"/>
+      <c r="AG4" s="429"/>
+      <c r="AH4" s="429"/>
+      <c r="AI4" s="429" t="s">
         <v>218</v>
       </c>
-      <c r="AJ4" s="419"/>
-      <c r="AK4" s="419"/>
-      <c r="AL4" s="419"/>
-      <c r="AM4" s="419"/>
-      <c r="AN4" s="419"/>
-      <c r="AO4" s="419"/>
-      <c r="AP4" s="419"/>
-      <c r="AQ4" s="419"/>
+      <c r="AJ4" s="429"/>
+      <c r="AK4" s="429"/>
+      <c r="AL4" s="429"/>
+      <c r="AM4" s="429"/>
+      <c r="AN4" s="429"/>
+      <c r="AO4" s="429"/>
+      <c r="AP4" s="429"/>
+      <c r="AQ4" s="429"/>
       <c r="AS4" s="21" t="s">
         <v>291</v>
       </c>
@@ -11444,49 +11457,49 @@
       <c r="BF4" s="23"/>
     </row>
     <row r="5" spans="1:58" ht="7.5" customHeight="1">
-      <c r="A5" s="420"/>
-      <c r="B5" s="420"/>
-      <c r="C5" s="420"/>
-      <c r="D5" s="420"/>
-      <c r="E5" s="420"/>
-      <c r="F5" s="420"/>
-      <c r="G5" s="420"/>
-      <c r="H5" s="420"/>
-      <c r="I5" s="420"/>
-      <c r="J5" s="420"/>
-      <c r="K5" s="420"/>
-      <c r="L5" s="420"/>
-      <c r="M5" s="420"/>
-      <c r="N5" s="420"/>
-      <c r="O5" s="420"/>
-      <c r="P5" s="420"/>
-      <c r="Q5" s="420"/>
-      <c r="R5" s="420"/>
-      <c r="S5" s="420"/>
-      <c r="T5" s="420"/>
-      <c r="U5" s="420"/>
-      <c r="V5" s="420"/>
-      <c r="W5" s="420"/>
-      <c r="X5" s="420"/>
-      <c r="Y5" s="420"/>
-      <c r="Z5" s="420"/>
-      <c r="AA5" s="420"/>
-      <c r="AB5" s="420"/>
-      <c r="AC5" s="420"/>
-      <c r="AD5" s="420"/>
-      <c r="AE5" s="420"/>
-      <c r="AF5" s="420"/>
-      <c r="AG5" s="420"/>
-      <c r="AH5" s="420"/>
-      <c r="AI5" s="420"/>
-      <c r="AJ5" s="420"/>
-      <c r="AK5" s="420"/>
-      <c r="AL5" s="420"/>
-      <c r="AM5" s="420"/>
-      <c r="AN5" s="420"/>
-      <c r="AO5" s="420"/>
-      <c r="AP5" s="420"/>
-      <c r="AQ5" s="420"/>
+      <c r="A5" s="430"/>
+      <c r="B5" s="430"/>
+      <c r="C5" s="430"/>
+      <c r="D5" s="430"/>
+      <c r="E5" s="430"/>
+      <c r="F5" s="430"/>
+      <c r="G5" s="430"/>
+      <c r="H5" s="430"/>
+      <c r="I5" s="430"/>
+      <c r="J5" s="430"/>
+      <c r="K5" s="430"/>
+      <c r="L5" s="430"/>
+      <c r="M5" s="430"/>
+      <c r="N5" s="430"/>
+      <c r="O5" s="430"/>
+      <c r="P5" s="430"/>
+      <c r="Q5" s="430"/>
+      <c r="R5" s="430"/>
+      <c r="S5" s="430"/>
+      <c r="T5" s="430"/>
+      <c r="U5" s="430"/>
+      <c r="V5" s="430"/>
+      <c r="W5" s="430"/>
+      <c r="X5" s="430"/>
+      <c r="Y5" s="430"/>
+      <c r="Z5" s="430"/>
+      <c r="AA5" s="430"/>
+      <c r="AB5" s="430"/>
+      <c r="AC5" s="430"/>
+      <c r="AD5" s="430"/>
+      <c r="AE5" s="430"/>
+      <c r="AF5" s="430"/>
+      <c r="AG5" s="430"/>
+      <c r="AH5" s="430"/>
+      <c r="AI5" s="430"/>
+      <c r="AJ5" s="430"/>
+      <c r="AK5" s="430"/>
+      <c r="AL5" s="430"/>
+      <c r="AM5" s="430"/>
+      <c r="AN5" s="430"/>
+      <c r="AO5" s="430"/>
+      <c r="AP5" s="430"/>
+      <c r="AQ5" s="430"/>
       <c r="AS5" s="21" t="s">
         <v>454</v>
       </c>
@@ -11509,49 +11522,49 @@
       <c r="BF5" s="67"/>
     </row>
     <row r="6" spans="1:58" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A6" s="421"/>
-      <c r="B6" s="421"/>
-      <c r="C6" s="421"/>
-      <c r="D6" s="421"/>
-      <c r="E6" s="421"/>
-      <c r="F6" s="421"/>
-      <c r="G6" s="421"/>
-      <c r="H6" s="421"/>
-      <c r="I6" s="421"/>
-      <c r="J6" s="421"/>
-      <c r="K6" s="421"/>
-      <c r="L6" s="421"/>
-      <c r="M6" s="421"/>
-      <c r="N6" s="421"/>
-      <c r="O6" s="421"/>
-      <c r="P6" s="421"/>
-      <c r="Q6" s="421"/>
-      <c r="R6" s="421"/>
-      <c r="S6" s="421"/>
-      <c r="T6" s="421"/>
-      <c r="U6" s="421"/>
-      <c r="V6" s="421"/>
-      <c r="W6" s="421"/>
-      <c r="X6" s="421"/>
-      <c r="Y6" s="421"/>
-      <c r="Z6" s="421"/>
-      <c r="AA6" s="421"/>
-      <c r="AB6" s="421"/>
-      <c r="AC6" s="421"/>
-      <c r="AD6" s="421"/>
-      <c r="AE6" s="421"/>
-      <c r="AF6" s="421"/>
-      <c r="AG6" s="421"/>
-      <c r="AH6" s="421"/>
-      <c r="AI6" s="421"/>
-      <c r="AJ6" s="421"/>
-      <c r="AK6" s="421"/>
-      <c r="AL6" s="421"/>
-      <c r="AM6" s="421"/>
-      <c r="AN6" s="421"/>
-      <c r="AO6" s="421"/>
-      <c r="AP6" s="421"/>
-      <c r="AQ6" s="421"/>
+      <c r="A6" s="431"/>
+      <c r="B6" s="431"/>
+      <c r="C6" s="431"/>
+      <c r="D6" s="431"/>
+      <c r="E6" s="431"/>
+      <c r="F6" s="431"/>
+      <c r="G6" s="431"/>
+      <c r="H6" s="431"/>
+      <c r="I6" s="431"/>
+      <c r="J6" s="431"/>
+      <c r="K6" s="431"/>
+      <c r="L6" s="431"/>
+      <c r="M6" s="431"/>
+      <c r="N6" s="431"/>
+      <c r="O6" s="431"/>
+      <c r="P6" s="431"/>
+      <c r="Q6" s="431"/>
+      <c r="R6" s="431"/>
+      <c r="S6" s="431"/>
+      <c r="T6" s="431"/>
+      <c r="U6" s="431"/>
+      <c r="V6" s="431"/>
+      <c r="W6" s="431"/>
+      <c r="X6" s="431"/>
+      <c r="Y6" s="431"/>
+      <c r="Z6" s="431"/>
+      <c r="AA6" s="431"/>
+      <c r="AB6" s="431"/>
+      <c r="AC6" s="431"/>
+      <c r="AD6" s="431"/>
+      <c r="AE6" s="431"/>
+      <c r="AF6" s="431"/>
+      <c r="AG6" s="431"/>
+      <c r="AH6" s="431"/>
+      <c r="AI6" s="431"/>
+      <c r="AJ6" s="431"/>
+      <c r="AK6" s="431"/>
+      <c r="AL6" s="431"/>
+      <c r="AM6" s="431"/>
+      <c r="AN6" s="431"/>
+      <c r="AO6" s="431"/>
+      <c r="AP6" s="431"/>
+      <c r="AQ6" s="431"/>
       <c r="AS6" s="22" t="s">
         <v>290</v>
       </c>
@@ -11569,57 +11582,57 @@
       <c r="BF6" s="67"/>
     </row>
     <row r="7" spans="1:58" ht="9" customHeight="1">
-      <c r="A7" s="415" t="s">
+      <c r="A7" s="425" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="416"/>
-      <c r="C7" s="416"/>
-      <c r="D7" s="416"/>
-      <c r="E7" s="416"/>
-      <c r="F7" s="416"/>
-      <c r="G7" s="416"/>
-      <c r="H7" s="416"/>
-      <c r="I7" s="416"/>
-      <c r="J7" s="416"/>
-      <c r="K7" s="416"/>
-      <c r="L7" s="416"/>
-      <c r="M7" s="416"/>
-      <c r="N7" s="416"/>
-      <c r="O7" s="416"/>
-      <c r="P7" s="416"/>
-      <c r="Q7" s="416"/>
-      <c r="R7" s="416"/>
-      <c r="S7" s="411" t="s">
+      <c r="B7" s="426"/>
+      <c r="C7" s="426"/>
+      <c r="D7" s="426"/>
+      <c r="E7" s="426"/>
+      <c r="F7" s="426"/>
+      <c r="G7" s="426"/>
+      <c r="H7" s="426"/>
+      <c r="I7" s="426"/>
+      <c r="J7" s="426"/>
+      <c r="K7" s="426"/>
+      <c r="L7" s="426"/>
+      <c r="M7" s="426"/>
+      <c r="N7" s="426"/>
+      <c r="O7" s="426"/>
+      <c r="P7" s="426"/>
+      <c r="Q7" s="426"/>
+      <c r="R7" s="426"/>
+      <c r="S7" s="421" t="s">
         <v>462</v>
       </c>
-      <c r="T7" s="411"/>
-      <c r="U7" s="411"/>
-      <c r="V7" s="411"/>
-      <c r="W7" s="405" t="s">
+      <c r="T7" s="421"/>
+      <c r="U7" s="421"/>
+      <c r="V7" s="421"/>
+      <c r="W7" s="415" t="s">
         <v>310</v>
       </c>
-      <c r="X7" s="406"/>
-      <c r="Y7" s="406"/>
-      <c r="Z7" s="406"/>
-      <c r="AA7" s="406"/>
-      <c r="AB7" s="406"/>
-      <c r="AC7" s="406"/>
-      <c r="AD7" s="406"/>
-      <c r="AE7" s="406"/>
-      <c r="AF7" s="406"/>
-      <c r="AG7" s="406"/>
-      <c r="AH7" s="406"/>
-      <c r="AI7" s="406"/>
-      <c r="AJ7" s="406"/>
-      <c r="AK7" s="406"/>
-      <c r="AL7" s="406"/>
-      <c r="AM7" s="407"/>
-      <c r="AN7" s="411" t="s">
+      <c r="X7" s="416"/>
+      <c r="Y7" s="416"/>
+      <c r="Z7" s="416"/>
+      <c r="AA7" s="416"/>
+      <c r="AB7" s="416"/>
+      <c r="AC7" s="416"/>
+      <c r="AD7" s="416"/>
+      <c r="AE7" s="416"/>
+      <c r="AF7" s="416"/>
+      <c r="AG7" s="416"/>
+      <c r="AH7" s="416"/>
+      <c r="AI7" s="416"/>
+      <c r="AJ7" s="416"/>
+      <c r="AK7" s="416"/>
+      <c r="AL7" s="416"/>
+      <c r="AM7" s="417"/>
+      <c r="AN7" s="421" t="s">
         <v>462</v>
       </c>
-      <c r="AO7" s="411"/>
-      <c r="AP7" s="411"/>
-      <c r="AQ7" s="412"/>
+      <c r="AO7" s="421"/>
+      <c r="AP7" s="421"/>
+      <c r="AQ7" s="422"/>
       <c r="AS7" s="23"/>
       <c r="AT7" s="71"/>
       <c r="AU7" s="102" t="s">
@@ -11638,49 +11651,49 @@
       <c r="BF7" s="67"/>
     </row>
     <row r="8" spans="1:58" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A8" s="417"/>
-      <c r="B8" s="418"/>
-      <c r="C8" s="418"/>
-      <c r="D8" s="418"/>
-      <c r="E8" s="418"/>
-      <c r="F8" s="418"/>
-      <c r="G8" s="418"/>
-      <c r="H8" s="418"/>
-      <c r="I8" s="418"/>
-      <c r="J8" s="418"/>
-      <c r="K8" s="418"/>
-      <c r="L8" s="418"/>
-      <c r="M8" s="418"/>
-      <c r="N8" s="418"/>
-      <c r="O8" s="418"/>
-      <c r="P8" s="418"/>
-      <c r="Q8" s="418"/>
-      <c r="R8" s="418"/>
-      <c r="S8" s="413"/>
-      <c r="T8" s="413"/>
-      <c r="U8" s="413"/>
-      <c r="V8" s="413"/>
-      <c r="W8" s="408"/>
-      <c r="X8" s="409"/>
-      <c r="Y8" s="409"/>
-      <c r="Z8" s="409"/>
-      <c r="AA8" s="409"/>
-      <c r="AB8" s="409"/>
-      <c r="AC8" s="409"/>
-      <c r="AD8" s="409"/>
-      <c r="AE8" s="409"/>
-      <c r="AF8" s="409"/>
-      <c r="AG8" s="409"/>
-      <c r="AH8" s="409"/>
-      <c r="AI8" s="409"/>
-      <c r="AJ8" s="409"/>
-      <c r="AK8" s="409"/>
-      <c r="AL8" s="409"/>
-      <c r="AM8" s="410"/>
-      <c r="AN8" s="413"/>
-      <c r="AO8" s="413"/>
-      <c r="AP8" s="413"/>
-      <c r="AQ8" s="414"/>
+      <c r="A8" s="427"/>
+      <c r="B8" s="428"/>
+      <c r="C8" s="428"/>
+      <c r="D8" s="428"/>
+      <c r="E8" s="428"/>
+      <c r="F8" s="428"/>
+      <c r="G8" s="428"/>
+      <c r="H8" s="428"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="428"/>
+      <c r="K8" s="428"/>
+      <c r="L8" s="428"/>
+      <c r="M8" s="428"/>
+      <c r="N8" s="428"/>
+      <c r="O8" s="428"/>
+      <c r="P8" s="428"/>
+      <c r="Q8" s="428"/>
+      <c r="R8" s="428"/>
+      <c r="S8" s="423"/>
+      <c r="T8" s="423"/>
+      <c r="U8" s="423"/>
+      <c r="V8" s="423"/>
+      <c r="W8" s="418"/>
+      <c r="X8" s="419"/>
+      <c r="Y8" s="419"/>
+      <c r="Z8" s="419"/>
+      <c r="AA8" s="419"/>
+      <c r="AB8" s="419"/>
+      <c r="AC8" s="419"/>
+      <c r="AD8" s="419"/>
+      <c r="AE8" s="419"/>
+      <c r="AF8" s="419"/>
+      <c r="AG8" s="419"/>
+      <c r="AH8" s="419"/>
+      <c r="AI8" s="419"/>
+      <c r="AJ8" s="419"/>
+      <c r="AK8" s="419"/>
+      <c r="AL8" s="419"/>
+      <c r="AM8" s="420"/>
+      <c r="AN8" s="423"/>
+      <c r="AO8" s="423"/>
+      <c r="AP8" s="423"/>
+      <c r="AQ8" s="424"/>
       <c r="AS8" s="23"/>
       <c r="AT8" s="22" t="s">
         <v>459</v>
@@ -17824,14 +17837,14 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.56999999999999995" right="0.5" top="0.52" bottom="0.52" header="0.15" footer="0.15"/>
-  <pageSetup scale="90" orientation="portrait"/>
+  <pageSetup scale="87" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8KEEN GOM BENTHIC MONITORING DATA&amp;C&amp;"Arial,Bold"&amp;12BENTHIC UNIFORM POINT CONTACT_x000D_DATA SHEET_x000D_&amp;R&amp;"Helvetica,Regular"Scanned by: _____________________x000D_Date scanned: __________________</oddHeader>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"_x000D_Data entry by: ____________________x000D_Date entered: ____________________&amp;C&amp;"Helvetica,Regular"Checked by: ______________________x000D_Date checked: ___________________&amp;R&amp;8Updated &amp;D</oddFooter>
   </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="90"/>
     </ext>
   </extLst>
 </worksheet>
@@ -17839,12 +17852,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E54" sqref="E54:F58"/>
     </sheetView>
   </sheetViews>
@@ -17857,42 +17868,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="388" t="s">
+      <c r="B1" s="389" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388" t="s">
+      <c r="C1" s="389"/>
+      <c r="D1" s="389" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="438" t="s">
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="432" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
-      <c r="J1" s="388" t="s">
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="389" t="s">
         <v>343</v>
       </c>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
       <c r="N1" s="94"/>
       <c r="O1" s="121"/>
     </row>
     <row r="2" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="438"/>
-      <c r="H2" s="438"/>
-      <c r="I2" s="438"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
       <c r="N2" s="94"/>
       <c r="O2" s="121"/>
     </row>
@@ -17933,543 +17944,543 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="200"/>
-      <c r="C5" s="424" t="s">
+      <c r="C5" s="445" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="425"/>
-      <c r="E5" s="426" t="s">
+      <c r="D5" s="446"/>
+      <c r="E5" s="447" t="s">
         <v>257</v>
       </c>
-      <c r="F5" s="427"/>
-      <c r="G5" s="424" t="s">
+      <c r="F5" s="448"/>
+      <c r="G5" s="445" t="s">
         <v>258</v>
       </c>
-      <c r="H5" s="425"/>
-      <c r="I5" s="426" t="s">
+      <c r="H5" s="446"/>
+      <c r="I5" s="447" t="s">
         <v>259</v>
       </c>
-      <c r="J5" s="427"/>
-      <c r="K5" s="424" t="s">
+      <c r="J5" s="448"/>
+      <c r="K5" s="445" t="s">
         <v>260</v>
       </c>
-      <c r="L5" s="425"/>
-      <c r="M5" s="426" t="s">
+      <c r="L5" s="446"/>
+      <c r="M5" s="447" t="s">
         <v>337</v>
       </c>
-      <c r="N5" s="427"/>
+      <c r="N5" s="448"/>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="182" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="430" t="s">
+      <c r="C6" s="443" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="431"/>
-      <c r="E6" s="430" t="s">
+      <c r="D6" s="444"/>
+      <c r="E6" s="443" t="s">
         <v>210</v>
       </c>
-      <c r="F6" s="431"/>
-      <c r="G6" s="430" t="s">
+      <c r="F6" s="444"/>
+      <c r="G6" s="443" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="431"/>
-      <c r="I6" s="430" t="s">
+      <c r="H6" s="444"/>
+      <c r="I6" s="443" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="431"/>
-      <c r="K6" s="430" t="s">
+      <c r="J6" s="444"/>
+      <c r="K6" s="443" t="s">
         <v>210</v>
       </c>
-      <c r="L6" s="431"/>
-      <c r="M6" s="430" t="s">
+      <c r="L6" s="444"/>
+      <c r="M6" s="443" t="s">
         <v>210</v>
       </c>
-      <c r="N6" s="431"/>
+      <c r="N6" s="444"/>
     </row>
     <row r="7" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="275" t="s">
         <v>513</v>
       </c>
-      <c r="C7" s="428"/>
-      <c r="D7" s="429"/>
-      <c r="E7" s="428"/>
-      <c r="F7" s="429"/>
-      <c r="G7" s="428"/>
-      <c r="H7" s="429"/>
-      <c r="I7" s="428"/>
-      <c r="J7" s="429"/>
-      <c r="K7" s="428"/>
-      <c r="L7" s="429"/>
-      <c r="M7" s="428"/>
-      <c r="N7" s="429"/>
+      <c r="C7" s="437"/>
+      <c r="D7" s="438"/>
+      <c r="E7" s="437"/>
+      <c r="F7" s="438"/>
+      <c r="G7" s="437"/>
+      <c r="H7" s="438"/>
+      <c r="I7" s="437"/>
+      <c r="J7" s="438"/>
+      <c r="K7" s="437"/>
+      <c r="L7" s="438"/>
+      <c r="M7" s="437"/>
+      <c r="N7" s="438"/>
     </row>
     <row r="8" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="278" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="422"/>
-      <c r="D8" s="423"/>
-      <c r="E8" s="422"/>
-      <c r="F8" s="423"/>
-      <c r="G8" s="422"/>
-      <c r="H8" s="423"/>
-      <c r="I8" s="422"/>
-      <c r="J8" s="423"/>
-      <c r="K8" s="422"/>
-      <c r="L8" s="423"/>
-      <c r="M8" s="422"/>
-      <c r="N8" s="423"/>
+      <c r="C8" s="435"/>
+      <c r="D8" s="436"/>
+      <c r="E8" s="435"/>
+      <c r="F8" s="436"/>
+      <c r="G8" s="435"/>
+      <c r="H8" s="436"/>
+      <c r="I8" s="435"/>
+      <c r="J8" s="436"/>
+      <c r="K8" s="435"/>
+      <c r="L8" s="436"/>
+      <c r="M8" s="435"/>
+      <c r="N8" s="436"/>
     </row>
     <row r="9" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B9" s="275" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="386"/>
-      <c r="D9" s="387"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="387"/>
-      <c r="G9" s="386"/>
-      <c r="H9" s="387"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="387"/>
-      <c r="K9" s="386"/>
-      <c r="L9" s="387"/>
-      <c r="M9" s="386"/>
-      <c r="N9" s="387"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="378"/>
+      <c r="E9" s="377"/>
+      <c r="F9" s="378"/>
+      <c r="G9" s="377"/>
+      <c r="H9" s="378"/>
+      <c r="I9" s="377"/>
+      <c r="J9" s="378"/>
+      <c r="K9" s="377"/>
+      <c r="L9" s="378"/>
+      <c r="M9" s="377"/>
+      <c r="N9" s="378"/>
     </row>
     <row r="10" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B10" s="278" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="422"/>
-      <c r="D10" s="423"/>
-      <c r="E10" s="422"/>
-      <c r="F10" s="423"/>
-      <c r="G10" s="422"/>
-      <c r="H10" s="423"/>
-      <c r="I10" s="422"/>
-      <c r="J10" s="423"/>
-      <c r="K10" s="422"/>
-      <c r="L10" s="423"/>
-      <c r="M10" s="422"/>
-      <c r="N10" s="423"/>
+      <c r="C10" s="435"/>
+      <c r="D10" s="436"/>
+      <c r="E10" s="435"/>
+      <c r="F10" s="436"/>
+      <c r="G10" s="435"/>
+      <c r="H10" s="436"/>
+      <c r="I10" s="435"/>
+      <c r="J10" s="436"/>
+      <c r="K10" s="435"/>
+      <c r="L10" s="436"/>
+      <c r="M10" s="435"/>
+      <c r="N10" s="436"/>
     </row>
     <row r="11" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="276" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="432"/>
-      <c r="D11" s="433"/>
-      <c r="E11" s="432"/>
-      <c r="F11" s="433"/>
-      <c r="G11" s="432"/>
-      <c r="H11" s="433"/>
-      <c r="I11" s="432"/>
-      <c r="J11" s="433"/>
-      <c r="K11" s="432"/>
-      <c r="L11" s="433"/>
-      <c r="M11" s="432"/>
-      <c r="N11" s="433"/>
+      <c r="C11" s="439"/>
+      <c r="D11" s="440"/>
+      <c r="E11" s="439"/>
+      <c r="F11" s="440"/>
+      <c r="G11" s="439"/>
+      <c r="H11" s="440"/>
+      <c r="I11" s="439"/>
+      <c r="J11" s="440"/>
+      <c r="K11" s="439"/>
+      <c r="L11" s="440"/>
+      <c r="M11" s="439"/>
+      <c r="N11" s="440"/>
     </row>
     <row r="12" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B12" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="434"/>
-      <c r="D12" s="435"/>
-      <c r="E12" s="434"/>
-      <c r="F12" s="435"/>
-      <c r="G12" s="434"/>
-      <c r="H12" s="435"/>
-      <c r="I12" s="434"/>
-      <c r="J12" s="435"/>
-      <c r="K12" s="434"/>
-      <c r="L12" s="435"/>
-      <c r="M12" s="434"/>
-      <c r="N12" s="435"/>
+      <c r="C12" s="441"/>
+      <c r="D12" s="442"/>
+      <c r="E12" s="441"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="441"/>
+      <c r="H12" s="442"/>
+      <c r="I12" s="441"/>
+      <c r="J12" s="442"/>
+      <c r="K12" s="441"/>
+      <c r="L12" s="442"/>
+      <c r="M12" s="441"/>
+      <c r="N12" s="442"/>
     </row>
     <row r="13" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="386"/>
-      <c r="D13" s="387"/>
-      <c r="E13" s="386"/>
-      <c r="F13" s="387"/>
-      <c r="G13" s="386"/>
-      <c r="H13" s="387"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="387"/>
-      <c r="K13" s="386"/>
-      <c r="L13" s="387"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="387"/>
+      <c r="C13" s="377"/>
+      <c r="D13" s="378"/>
+      <c r="E13" s="377"/>
+      <c r="F13" s="378"/>
+      <c r="G13" s="377"/>
+      <c r="H13" s="378"/>
+      <c r="I13" s="377"/>
+      <c r="J13" s="378"/>
+      <c r="K13" s="377"/>
+      <c r="L13" s="378"/>
+      <c r="M13" s="377"/>
+      <c r="N13" s="378"/>
     </row>
     <row r="14" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="422"/>
-      <c r="D14" s="423"/>
-      <c r="E14" s="422"/>
-      <c r="F14" s="423"/>
-      <c r="G14" s="422"/>
-      <c r="H14" s="423"/>
-      <c r="I14" s="422"/>
-      <c r="J14" s="423"/>
-      <c r="K14" s="422"/>
-      <c r="L14" s="423"/>
-      <c r="M14" s="422"/>
-      <c r="N14" s="423"/>
+      <c r="C14" s="435"/>
+      <c r="D14" s="436"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="436"/>
+      <c r="G14" s="435"/>
+      <c r="H14" s="436"/>
+      <c r="I14" s="435"/>
+      <c r="J14" s="436"/>
+      <c r="K14" s="435"/>
+      <c r="L14" s="436"/>
+      <c r="M14" s="435"/>
+      <c r="N14" s="436"/>
     </row>
     <row r="15" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B15" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="386"/>
-      <c r="D15" s="387"/>
-      <c r="E15" s="386"/>
-      <c r="F15" s="387"/>
-      <c r="G15" s="386"/>
-      <c r="H15" s="387"/>
-      <c r="I15" s="386"/>
-      <c r="J15" s="387"/>
-      <c r="K15" s="386"/>
-      <c r="L15" s="387"/>
-      <c r="M15" s="386"/>
-      <c r="N15" s="387"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="378"/>
+      <c r="E15" s="377"/>
+      <c r="F15" s="378"/>
+      <c r="G15" s="377"/>
+      <c r="H15" s="378"/>
+      <c r="I15" s="377"/>
+      <c r="J15" s="378"/>
+      <c r="K15" s="377"/>
+      <c r="L15" s="378"/>
+      <c r="M15" s="377"/>
+      <c r="N15" s="378"/>
     </row>
     <row r="16" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B16" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="436"/>
-      <c r="D16" s="437"/>
-      <c r="E16" s="436"/>
-      <c r="F16" s="437"/>
-      <c r="G16" s="436"/>
-      <c r="H16" s="437"/>
-      <c r="I16" s="436"/>
-      <c r="J16" s="437"/>
-      <c r="K16" s="436"/>
-      <c r="L16" s="437"/>
-      <c r="M16" s="436"/>
-      <c r="N16" s="437"/>
+      <c r="C16" s="433"/>
+      <c r="D16" s="434"/>
+      <c r="E16" s="433"/>
+      <c r="F16" s="434"/>
+      <c r="G16" s="433"/>
+      <c r="H16" s="434"/>
+      <c r="I16" s="433"/>
+      <c r="J16" s="434"/>
+      <c r="K16" s="433"/>
+      <c r="L16" s="434"/>
+      <c r="M16" s="433"/>
+      <c r="N16" s="434"/>
     </row>
     <row r="17" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B17" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="428"/>
-      <c r="D17" s="429"/>
-      <c r="E17" s="428"/>
-      <c r="F17" s="429"/>
-      <c r="G17" s="428"/>
-      <c r="H17" s="429"/>
-      <c r="I17" s="428"/>
-      <c r="J17" s="429"/>
-      <c r="K17" s="428"/>
-      <c r="L17" s="429"/>
-      <c r="M17" s="428"/>
-      <c r="N17" s="429"/>
+      <c r="C17" s="437"/>
+      <c r="D17" s="438"/>
+      <c r="E17" s="437"/>
+      <c r="F17" s="438"/>
+      <c r="G17" s="437"/>
+      <c r="H17" s="438"/>
+      <c r="I17" s="437"/>
+      <c r="J17" s="438"/>
+      <c r="K17" s="437"/>
+      <c r="L17" s="438"/>
+      <c r="M17" s="437"/>
+      <c r="N17" s="438"/>
     </row>
     <row r="18" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B18" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="422"/>
-      <c r="D18" s="423"/>
-      <c r="E18" s="422"/>
-      <c r="F18" s="423"/>
-      <c r="G18" s="422"/>
-      <c r="H18" s="423"/>
-      <c r="I18" s="422"/>
-      <c r="J18" s="423"/>
-      <c r="K18" s="422"/>
-      <c r="L18" s="423"/>
-      <c r="M18" s="422"/>
-      <c r="N18" s="423"/>
+      <c r="C18" s="435"/>
+      <c r="D18" s="436"/>
+      <c r="E18" s="435"/>
+      <c r="F18" s="436"/>
+      <c r="G18" s="435"/>
+      <c r="H18" s="436"/>
+      <c r="I18" s="435"/>
+      <c r="J18" s="436"/>
+      <c r="K18" s="435"/>
+      <c r="L18" s="436"/>
+      <c r="M18" s="435"/>
+      <c r="N18" s="436"/>
     </row>
     <row r="19" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B19" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="386"/>
-      <c r="D19" s="387"/>
-      <c r="E19" s="386"/>
-      <c r="F19" s="387"/>
-      <c r="G19" s="386"/>
-      <c r="H19" s="387"/>
-      <c r="I19" s="386"/>
-      <c r="J19" s="387"/>
-      <c r="K19" s="386"/>
-      <c r="L19" s="387"/>
-      <c r="M19" s="386"/>
-      <c r="N19" s="387"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="378"/>
+      <c r="E19" s="377"/>
+      <c r="F19" s="378"/>
+      <c r="G19" s="377"/>
+      <c r="H19" s="378"/>
+      <c r="I19" s="377"/>
+      <c r="J19" s="378"/>
+      <c r="K19" s="377"/>
+      <c r="L19" s="378"/>
+      <c r="M19" s="377"/>
+      <c r="N19" s="378"/>
     </row>
     <row r="20" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B20" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="422"/>
-      <c r="D20" s="423"/>
-      <c r="E20" s="422"/>
-      <c r="F20" s="423"/>
-      <c r="G20" s="422"/>
-      <c r="H20" s="423"/>
-      <c r="I20" s="422"/>
-      <c r="J20" s="423"/>
-      <c r="K20" s="422"/>
-      <c r="L20" s="423"/>
-      <c r="M20" s="422"/>
-      <c r="N20" s="423"/>
+      <c r="C20" s="435"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="435"/>
+      <c r="F20" s="436"/>
+      <c r="G20" s="435"/>
+      <c r="H20" s="436"/>
+      <c r="I20" s="435"/>
+      <c r="J20" s="436"/>
+      <c r="K20" s="435"/>
+      <c r="L20" s="436"/>
+      <c r="M20" s="435"/>
+      <c r="N20" s="436"/>
     </row>
     <row r="21" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B21" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="432"/>
-      <c r="D21" s="433"/>
-      <c r="E21" s="432"/>
-      <c r="F21" s="433"/>
-      <c r="G21" s="432"/>
-      <c r="H21" s="433"/>
-      <c r="I21" s="432"/>
-      <c r="J21" s="433"/>
-      <c r="K21" s="432"/>
-      <c r="L21" s="433"/>
-      <c r="M21" s="432"/>
-      <c r="N21" s="433"/>
+      <c r="C21" s="439"/>
+      <c r="D21" s="440"/>
+      <c r="E21" s="439"/>
+      <c r="F21" s="440"/>
+      <c r="G21" s="439"/>
+      <c r="H21" s="440"/>
+      <c r="I21" s="439"/>
+      <c r="J21" s="440"/>
+      <c r="K21" s="439"/>
+      <c r="L21" s="440"/>
+      <c r="M21" s="439"/>
+      <c r="N21" s="440"/>
     </row>
     <row r="22" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="434"/>
-      <c r="D22" s="435"/>
-      <c r="E22" s="434"/>
-      <c r="F22" s="435"/>
-      <c r="G22" s="434"/>
-      <c r="H22" s="435"/>
-      <c r="I22" s="434"/>
-      <c r="J22" s="435"/>
-      <c r="K22" s="434"/>
-      <c r="L22" s="435"/>
-      <c r="M22" s="434"/>
-      <c r="N22" s="435"/>
+      <c r="C22" s="441"/>
+      <c r="D22" s="442"/>
+      <c r="E22" s="441"/>
+      <c r="F22" s="442"/>
+      <c r="G22" s="441"/>
+      <c r="H22" s="442"/>
+      <c r="I22" s="441"/>
+      <c r="J22" s="442"/>
+      <c r="K22" s="441"/>
+      <c r="L22" s="442"/>
+      <c r="M22" s="441"/>
+      <c r="N22" s="442"/>
     </row>
     <row r="23" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="386"/>
-      <c r="D23" s="387"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="387"/>
-      <c r="G23" s="386"/>
-      <c r="H23" s="387"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="387"/>
-      <c r="K23" s="386"/>
-      <c r="L23" s="387"/>
-      <c r="M23" s="386"/>
-      <c r="N23" s="387"/>
+      <c r="C23" s="377"/>
+      <c r="D23" s="378"/>
+      <c r="E23" s="377"/>
+      <c r="F23" s="378"/>
+      <c r="G23" s="377"/>
+      <c r="H23" s="378"/>
+      <c r="I23" s="377"/>
+      <c r="J23" s="378"/>
+      <c r="K23" s="377"/>
+      <c r="L23" s="378"/>
+      <c r="M23" s="377"/>
+      <c r="N23" s="378"/>
     </row>
     <row r="24" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B24" s="278"/>
-      <c r="C24" s="422"/>
-      <c r="D24" s="423"/>
-      <c r="E24" s="422"/>
-      <c r="F24" s="423"/>
-      <c r="G24" s="422"/>
-      <c r="H24" s="423"/>
-      <c r="I24" s="422"/>
-      <c r="J24" s="423"/>
-      <c r="K24" s="422"/>
-      <c r="L24" s="423"/>
-      <c r="M24" s="422"/>
-      <c r="N24" s="423"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="435"/>
+      <c r="F24" s="436"/>
+      <c r="G24" s="435"/>
+      <c r="H24" s="436"/>
+      <c r="I24" s="435"/>
+      <c r="J24" s="436"/>
+      <c r="K24" s="435"/>
+      <c r="L24" s="436"/>
+      <c r="M24" s="435"/>
+      <c r="N24" s="436"/>
     </row>
     <row r="25" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B25" s="275"/>
-      <c r="C25" s="386"/>
-      <c r="D25" s="387"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="386"/>
-      <c r="H25" s="387"/>
-      <c r="I25" s="386"/>
-      <c r="J25" s="387"/>
-      <c r="K25" s="386"/>
-      <c r="L25" s="387"/>
-      <c r="M25" s="386"/>
-      <c r="N25" s="387"/>
+      <c r="C25" s="377"/>
+      <c r="D25" s="378"/>
+      <c r="E25" s="377"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="377"/>
+      <c r="H25" s="378"/>
+      <c r="I25" s="377"/>
+      <c r="J25" s="378"/>
+      <c r="K25" s="377"/>
+      <c r="L25" s="378"/>
+      <c r="M25" s="377"/>
+      <c r="N25" s="378"/>
     </row>
     <row r="26" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B26" s="280"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="437"/>
-      <c r="E26" s="436"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="436"/>
-      <c r="H26" s="437"/>
-      <c r="I26" s="436"/>
-      <c r="J26" s="437"/>
-      <c r="K26" s="436"/>
-      <c r="L26" s="437"/>
-      <c r="M26" s="436"/>
-      <c r="N26" s="437"/>
+      <c r="C26" s="433"/>
+      <c r="D26" s="434"/>
+      <c r="E26" s="433"/>
+      <c r="F26" s="434"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="434"/>
+      <c r="I26" s="433"/>
+      <c r="J26" s="434"/>
+      <c r="K26" s="433"/>
+      <c r="L26" s="434"/>
+      <c r="M26" s="433"/>
+      <c r="N26" s="434"/>
     </row>
     <row r="27" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B27" s="277"/>
-      <c r="C27" s="428"/>
-      <c r="D27" s="429"/>
-      <c r="E27" s="428"/>
-      <c r="F27" s="429"/>
-      <c r="G27" s="428"/>
-      <c r="H27" s="429"/>
-      <c r="I27" s="428"/>
-      <c r="J27" s="429"/>
-      <c r="K27" s="428"/>
-      <c r="L27" s="429"/>
-      <c r="M27" s="428"/>
-      <c r="N27" s="429"/>
+      <c r="C27" s="437"/>
+      <c r="D27" s="438"/>
+      <c r="E27" s="437"/>
+      <c r="F27" s="438"/>
+      <c r="G27" s="437"/>
+      <c r="H27" s="438"/>
+      <c r="I27" s="437"/>
+      <c r="J27" s="438"/>
+      <c r="K27" s="437"/>
+      <c r="L27" s="438"/>
+      <c r="M27" s="437"/>
+      <c r="N27" s="438"/>
     </row>
     <row r="28" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B28" s="278"/>
-      <c r="C28" s="422"/>
-      <c r="D28" s="423"/>
-      <c r="E28" s="422"/>
-      <c r="F28" s="423"/>
-      <c r="G28" s="422"/>
-      <c r="H28" s="423"/>
-      <c r="I28" s="422"/>
-      <c r="J28" s="423"/>
-      <c r="K28" s="422"/>
-      <c r="L28" s="423"/>
-      <c r="M28" s="422"/>
-      <c r="N28" s="387"/>
+      <c r="C28" s="435"/>
+      <c r="D28" s="436"/>
+      <c r="E28" s="435"/>
+      <c r="F28" s="436"/>
+      <c r="G28" s="435"/>
+      <c r="H28" s="436"/>
+      <c r="I28" s="435"/>
+      <c r="J28" s="436"/>
+      <c r="K28" s="435"/>
+      <c r="L28" s="436"/>
+      <c r="M28" s="435"/>
+      <c r="N28" s="378"/>
     </row>
     <row r="29" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B29" s="275"/>
-      <c r="C29" s="386"/>
-      <c r="D29" s="387"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="386"/>
-      <c r="J29" s="387"/>
-      <c r="K29" s="386"/>
-      <c r="L29" s="387"/>
-      <c r="M29" s="386"/>
-      <c r="N29" s="387"/>
+      <c r="C29" s="377"/>
+      <c r="D29" s="378"/>
+      <c r="E29" s="377"/>
+      <c r="F29" s="378"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="378"/>
+      <c r="I29" s="377"/>
+      <c r="J29" s="378"/>
+      <c r="K29" s="377"/>
+      <c r="L29" s="378"/>
+      <c r="M29" s="377"/>
+      <c r="N29" s="378"/>
     </row>
     <row r="30" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B30" s="278"/>
-      <c r="C30" s="422"/>
-      <c r="D30" s="423"/>
-      <c r="E30" s="422"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="422"/>
-      <c r="H30" s="423"/>
-      <c r="I30" s="422"/>
-      <c r="J30" s="423"/>
-      <c r="K30" s="422"/>
-      <c r="L30" s="423"/>
-      <c r="M30" s="422"/>
-      <c r="N30" s="423"/>
+      <c r="C30" s="435"/>
+      <c r="D30" s="436"/>
+      <c r="E30" s="435"/>
+      <c r="F30" s="436"/>
+      <c r="G30" s="435"/>
+      <c r="H30" s="436"/>
+      <c r="I30" s="435"/>
+      <c r="J30" s="436"/>
+      <c r="K30" s="435"/>
+      <c r="L30" s="436"/>
+      <c r="M30" s="435"/>
+      <c r="N30" s="436"/>
     </row>
     <row r="31" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B31" s="276"/>
-      <c r="C31" s="432"/>
-      <c r="D31" s="433"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="432"/>
-      <c r="H31" s="433"/>
-      <c r="I31" s="432"/>
-      <c r="J31" s="433"/>
-      <c r="K31" s="432"/>
-      <c r="L31" s="433"/>
-      <c r="M31" s="432"/>
-      <c r="N31" s="433"/>
+      <c r="C31" s="439"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="439"/>
+      <c r="J31" s="440"/>
+      <c r="K31" s="439"/>
+      <c r="L31" s="440"/>
+      <c r="M31" s="439"/>
+      <c r="N31" s="440"/>
     </row>
     <row r="32" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B32" s="279"/>
-      <c r="C32" s="434"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="434"/>
-      <c r="F32" s="435"/>
-      <c r="G32" s="434"/>
-      <c r="H32" s="435"/>
-      <c r="I32" s="434"/>
-      <c r="J32" s="435"/>
-      <c r="K32" s="434"/>
-      <c r="L32" s="435"/>
-      <c r="M32" s="434"/>
-      <c r="N32" s="435"/>
+      <c r="C32" s="441"/>
+      <c r="D32" s="442"/>
+      <c r="E32" s="441"/>
+      <c r="F32" s="442"/>
+      <c r="G32" s="441"/>
+      <c r="H32" s="442"/>
+      <c r="I32" s="441"/>
+      <c r="J32" s="442"/>
+      <c r="K32" s="441"/>
+      <c r="L32" s="442"/>
+      <c r="M32" s="441"/>
+      <c r="N32" s="442"/>
     </row>
     <row r="33" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B33" s="277"/>
-      <c r="C33" s="386"/>
-      <c r="D33" s="387"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="386"/>
-      <c r="H33" s="387"/>
-      <c r="I33" s="386"/>
-      <c r="J33" s="387"/>
-      <c r="K33" s="386"/>
-      <c r="L33" s="387"/>
-      <c r="M33" s="386"/>
-      <c r="N33" s="387"/>
+      <c r="C33" s="377"/>
+      <c r="D33" s="378"/>
+      <c r="E33" s="377"/>
+      <c r="F33" s="378"/>
+      <c r="G33" s="377"/>
+      <c r="H33" s="378"/>
+      <c r="I33" s="377"/>
+      <c r="J33" s="378"/>
+      <c r="K33" s="377"/>
+      <c r="L33" s="378"/>
+      <c r="M33" s="377"/>
+      <c r="N33" s="378"/>
     </row>
     <row r="34" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="279"/>
-      <c r="C34" s="422"/>
-      <c r="D34" s="423"/>
-      <c r="E34" s="422"/>
-      <c r="F34" s="423"/>
-      <c r="G34" s="422"/>
-      <c r="H34" s="423"/>
-      <c r="I34" s="422"/>
-      <c r="J34" s="423"/>
-      <c r="K34" s="422"/>
-      <c r="L34" s="423"/>
-      <c r="M34" s="422"/>
-      <c r="N34" s="423"/>
+      <c r="C34" s="435"/>
+      <c r="D34" s="436"/>
+      <c r="E34" s="435"/>
+      <c r="F34" s="436"/>
+      <c r="G34" s="435"/>
+      <c r="H34" s="436"/>
+      <c r="I34" s="435"/>
+      <c r="J34" s="436"/>
+      <c r="K34" s="435"/>
+      <c r="L34" s="436"/>
+      <c r="M34" s="435"/>
+      <c r="N34" s="436"/>
     </row>
     <row r="35" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B35" s="277"/>
-      <c r="C35" s="386"/>
-      <c r="D35" s="387"/>
-      <c r="E35" s="386"/>
-      <c r="F35" s="387"/>
-      <c r="G35" s="386"/>
-      <c r="H35" s="387"/>
-      <c r="I35" s="386"/>
-      <c r="J35" s="387"/>
-      <c r="K35" s="386"/>
-      <c r="L35" s="387"/>
-      <c r="M35" s="386"/>
-      <c r="N35" s="387"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="377"/>
+      <c r="F35" s="378"/>
+      <c r="G35" s="377"/>
+      <c r="H35" s="378"/>
+      <c r="I35" s="377"/>
+      <c r="J35" s="378"/>
+      <c r="K35" s="377"/>
+      <c r="L35" s="378"/>
+      <c r="M35" s="377"/>
+      <c r="N35" s="378"/>
     </row>
     <row r="36" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B36" s="280"/>
-      <c r="C36" s="436"/>
-      <c r="D36" s="437"/>
-      <c r="E36" s="436"/>
-      <c r="F36" s="437"/>
-      <c r="G36" s="436"/>
-      <c r="H36" s="437"/>
-      <c r="I36" s="436"/>
-      <c r="J36" s="437"/>
-      <c r="K36" s="436"/>
-      <c r="L36" s="437"/>
-      <c r="M36" s="436"/>
-      <c r="N36" s="437"/>
+      <c r="C36" s="433"/>
+      <c r="D36" s="434"/>
+      <c r="E36" s="433"/>
+      <c r="F36" s="434"/>
+      <c r="G36" s="433"/>
+      <c r="H36" s="434"/>
+      <c r="I36" s="433"/>
+      <c r="J36" s="434"/>
+      <c r="K36" s="433"/>
+      <c r="L36" s="434"/>
+      <c r="M36" s="433"/>
+      <c r="N36" s="434"/>
     </row>
     <row r="37" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37"/>
@@ -19204,6 +19215,178 @@
     <row r="86" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="196">
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
@@ -19228,183 +19411,11 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.51" bottom="0.5" header="0.17" footer="0.17"/>
-  <pageSetup scale="92" orientation="portrait"/>
+  <pageSetup scale="88" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8KEEN GOM BENTHIC MONITORING DATA_x000D_&amp;C&amp;"Arial,Bold"&amp;12BENTHIC QUADRAT COUNTS&amp;R&amp;"Helvetica,Regular"Scanned by: ____________________
 Date scanned: __________________</oddHeader>
@@ -19412,7 +19423,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="92"/>
     </ext>
   </extLst>
 </worksheet>
@@ -19423,7 +19434,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A20" zoomScale="125" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:J45"/>
     </sheetView>
   </sheetViews>
@@ -19444,25 +19455,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="445" t="s">
+      <c r="A1" s="469" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="445"/>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445" t="s">
+      <c r="B1" s="469"/>
+      <c r="C1" s="469"/>
+      <c r="D1" s="469" t="s">
         <v>351</v>
       </c>
-      <c r="E1" s="445"/>
-      <c r="F1" s="445" t="s">
+      <c r="E1" s="469"/>
+      <c r="F1" s="469" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
-      <c r="I1" s="445" t="s">
+      <c r="G1" s="469"/>
+      <c r="H1" s="469"/>
+      <c r="I1" s="469" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="445"/>
-      <c r="K1" s="445"/>
+      <c r="J1" s="469"/>
+      <c r="K1" s="469"/>
     </row>
     <row r="2" spans="1:11" ht="7" customHeight="1">
       <c r="A2" s="16"/>
@@ -19499,52 +19510,52 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:11" ht="16" customHeight="1">
-      <c r="A5" s="449" t="s">
+      <c r="A5" s="474" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="450"/>
-      <c r="C5" s="448" t="s">
+      <c r="B5" s="475"/>
+      <c r="C5" s="472" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="456"/>
-      <c r="E5" s="457" t="s">
+      <c r="D5" s="481"/>
+      <c r="E5" s="482" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="458"/>
-      <c r="G5" s="448" t="s">
+      <c r="F5" s="454"/>
+      <c r="G5" s="472" t="s">
         <v>456</v>
       </c>
-      <c r="H5" s="453"/>
-      <c r="I5" s="448" t="s">
+      <c r="H5" s="478"/>
+      <c r="I5" s="472" t="s">
         <v>457</v>
       </c>
-      <c r="J5" s="385"/>
+      <c r="J5" s="473"/>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A6" s="451"/>
-      <c r="B6" s="452"/>
-      <c r="C6" s="454" t="s">
+      <c r="A6" s="476"/>
+      <c r="B6" s="477"/>
+      <c r="C6" s="479" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="455"/>
-      <c r="E6" s="454" t="s">
+      <c r="D6" s="480"/>
+      <c r="E6" s="479" t="s">
         <v>210</v>
       </c>
-      <c r="F6" s="455"/>
-      <c r="G6" s="446" t="s">
+      <c r="F6" s="480"/>
+      <c r="G6" s="470" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="447"/>
-      <c r="I6" s="446" t="s">
+      <c r="H6" s="471"/>
+      <c r="I6" s="470" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="447"/>
+      <c r="J6" s="471"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="459" t="s">
+      <c r="A7" s="461" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="460"/>
+      <c r="B7" s="462"/>
       <c r="C7" s="136"/>
       <c r="D7" s="137"/>
       <c r="E7" s="136"/>
@@ -19555,10 +19566,10 @@
       <c r="J7" s="137"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
-      <c r="A8" s="461" t="s">
+      <c r="A8" s="463" t="s">
         <v>435</v>
       </c>
-      <c r="B8" s="462"/>
+      <c r="B8" s="464"/>
       <c r="C8" s="281"/>
       <c r="D8" s="282"/>
       <c r="E8" s="281"/>
@@ -19569,10 +19580,10 @@
       <c r="J8" s="282"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
-      <c r="A9" s="463" t="s">
+      <c r="A9" s="465" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="464"/>
+      <c r="B9" s="466"/>
       <c r="C9" s="4"/>
       <c r="D9" s="135"/>
       <c r="E9" s="4"/>
@@ -19583,10 +19594,10 @@
       <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="465" t="s">
+      <c r="A10" s="467" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="466"/>
+      <c r="B10" s="468"/>
       <c r="C10" s="284"/>
       <c r="D10" s="285"/>
       <c r="E10" s="284"/>
@@ -19597,10 +19608,10 @@
       <c r="J10" s="285"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" s="467" t="s">
+      <c r="A11" s="457" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="468"/>
+      <c r="B11" s="458"/>
       <c r="C11" s="4"/>
       <c r="D11" s="135"/>
       <c r="E11" s="4"/>
@@ -19611,8 +19622,8 @@
       <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="A12" s="439"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="455"/>
+      <c r="B12" s="456"/>
       <c r="C12" s="281"/>
       <c r="D12" s="282"/>
       <c r="E12" s="281"/>
@@ -19623,8 +19634,8 @@
       <c r="J12" s="282"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="441"/>
-      <c r="B13" s="442"/>
+      <c r="A13" s="451"/>
+      <c r="B13" s="452"/>
       <c r="C13" s="4"/>
       <c r="D13" s="135"/>
       <c r="E13" s="4"/>
@@ -19635,8 +19646,8 @@
       <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="443"/>
-      <c r="B14" s="444"/>
+      <c r="A14" s="449"/>
+      <c r="B14" s="450"/>
       <c r="C14" s="284"/>
       <c r="D14" s="285"/>
       <c r="E14" s="284"/>
@@ -19647,10 +19658,10 @@
       <c r="J14" s="285"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1">
-      <c r="A15" s="467" t="s">
+      <c r="A15" s="457" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="468"/>
+      <c r="B15" s="458"/>
       <c r="C15" s="138"/>
       <c r="D15" s="139"/>
       <c r="E15" s="138"/>
@@ -19661,10 +19672,10 @@
       <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="469" t="s">
+      <c r="A16" s="459" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="470"/>
+      <c r="B16" s="460"/>
       <c r="C16" s="281"/>
       <c r="D16" s="282"/>
       <c r="E16" s="281"/>
@@ -19675,8 +19686,8 @@
       <c r="J16" s="282"/>
     </row>
     <row r="17" spans="1:18" ht="18" customHeight="1">
-      <c r="A17" s="441"/>
-      <c r="B17" s="442"/>
+      <c r="A17" s="451"/>
+      <c r="B17" s="452"/>
       <c r="C17" s="4"/>
       <c r="D17" s="135"/>
       <c r="E17" s="4"/>
@@ -19687,8 +19698,8 @@
       <c r="J17" s="135"/>
     </row>
     <row r="18" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="443"/>
-      <c r="B18" s="444"/>
+      <c r="A18" s="449"/>
+      <c r="B18" s="450"/>
       <c r="C18" s="284"/>
       <c r="D18" s="285"/>
       <c r="E18" s="284"/>
@@ -19699,8 +19710,8 @@
       <c r="J18" s="285"/>
     </row>
     <row r="19" spans="1:18" ht="18" customHeight="1">
-      <c r="A19" s="471"/>
-      <c r="B19" s="458"/>
+      <c r="A19" s="453"/>
+      <c r="B19" s="454"/>
       <c r="C19" s="2"/>
       <c r="D19" s="175"/>
       <c r="E19" s="2"/>
@@ -19711,8 +19722,8 @@
       <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:18" ht="18" customHeight="1">
-      <c r="A20" s="439"/>
-      <c r="B20" s="440"/>
+      <c r="A20" s="455"/>
+      <c r="B20" s="456"/>
       <c r="C20" s="281"/>
       <c r="D20" s="282"/>
       <c r="E20" s="281"/>
@@ -19723,8 +19734,8 @@
       <c r="J20" s="282"/>
     </row>
     <row r="21" spans="1:18" ht="18" customHeight="1">
-      <c r="A21" s="441"/>
-      <c r="B21" s="442"/>
+      <c r="A21" s="451"/>
+      <c r="B21" s="452"/>
       <c r="C21" s="4"/>
       <c r="D21" s="135"/>
       <c r="E21" s="4"/>
@@ -19735,8 +19746,8 @@
       <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="443"/>
-      <c r="B22" s="444"/>
+      <c r="A22" s="449"/>
+      <c r="B22" s="450"/>
       <c r="C22" s="284"/>
       <c r="D22" s="285"/>
       <c r="E22" s="284"/>
@@ -19759,8 +19770,8 @@
       <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:18" ht="18" customHeight="1">
-      <c r="A24" s="439"/>
-      <c r="B24" s="440"/>
+      <c r="A24" s="455"/>
+      <c r="B24" s="456"/>
       <c r="C24" s="281"/>
       <c r="D24" s="282"/>
       <c r="E24" s="281"/>
@@ -19771,8 +19782,8 @@
       <c r="J24" s="282"/>
     </row>
     <row r="25" spans="1:18" ht="18" customHeight="1">
-      <c r="A25" s="441"/>
-      <c r="B25" s="442"/>
+      <c r="A25" s="451"/>
+      <c r="B25" s="452"/>
       <c r="C25" s="4"/>
       <c r="D25" s="135"/>
       <c r="E25" s="4"/>
@@ -19783,8 +19794,8 @@
       <c r="J25" s="135"/>
     </row>
     <row r="26" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="443"/>
-      <c r="B26" s="444"/>
+      <c r="A26" s="449"/>
+      <c r="B26" s="450"/>
       <c r="C26" s="284"/>
       <c r="D26" s="285"/>
       <c r="E26" s="284"/>
@@ -20348,22 +20359,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
@@ -20380,18 +20375,34 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.71" bottom="0.43" header="0.2" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="95" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8KEEN GOMBENTHIC MONITORING DATA&amp;"Arial,Bold"&amp;16_x000D_&amp;C&amp;"Arial,Bold"&amp;12SWATH COUNTS&amp;R&amp;"Helvetica,Regular"Scanned by: _____________________x000D_Date scanned: __________________</oddHeader>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;9Data entry by: ____________________x000D_Date entered: _____________________x000D_&amp;C&amp;"Helvetica,Regular"&amp;9Checked by: ______________________x000D_Date checked: ____________________x000D_&amp;R&amp;6Updated: &amp;D</oddFooter>
   </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -20399,12 +20410,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B1" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -20466,38 +20475,38 @@
     <row r="4" spans="1:19" ht="14" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="20"/>
-      <c r="C5" s="485"/>
-      <c r="D5" s="486"/>
-      <c r="E5" s="487" t="s">
+      <c r="C5" s="493"/>
+      <c r="D5" s="494"/>
+      <c r="E5" s="491" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="488"/>
-      <c r="G5" s="491" t="s">
+      <c r="F5" s="490"/>
+      <c r="G5" s="489" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="487"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="487"/>
-      <c r="K5" s="487"/>
-      <c r="L5" s="487"/>
-      <c r="M5" s="488"/>
-      <c r="N5" s="491" t="s">
+      <c r="H5" s="491"/>
+      <c r="I5" s="491"/>
+      <c r="J5" s="491"/>
+      <c r="K5" s="491"/>
+      <c r="L5" s="491"/>
+      <c r="M5" s="490"/>
+      <c r="N5" s="489" t="s">
         <v>251</v>
       </c>
-      <c r="O5" s="488"/>
+      <c r="O5" s="490"/>
       <c r="P5" s="233" t="s">
         <v>252</v>
       </c>
-      <c r="Q5" s="487" t="s">
+      <c r="Q5" s="491" t="s">
         <v>253</v>
       </c>
-      <c r="R5" s="487"/>
+      <c r="R5" s="491"/>
       <c r="S5" s="232" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="24" customHeight="1">
-      <c r="A6" s="480" t="s">
+      <c r="A6" s="499" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="125" t="s">
@@ -20509,24 +20518,24 @@
       <c r="D6" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="474"/>
-      <c r="F6" s="474"/>
-      <c r="G6" s="474"/>
-      <c r="H6" s="474"/>
-      <c r="I6" s="474"/>
-      <c r="J6" s="474"/>
-      <c r="K6" s="474"/>
-      <c r="L6" s="474"/>
-      <c r="M6" s="474"/>
-      <c r="N6" s="474"/>
-      <c r="O6" s="474"/>
+      <c r="E6" s="403"/>
+      <c r="F6" s="403"/>
+      <c r="G6" s="403"/>
+      <c r="H6" s="403"/>
+      <c r="I6" s="403"/>
+      <c r="J6" s="403"/>
+      <c r="K6" s="403"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="403"/>
+      <c r="N6" s="403"/>
+      <c r="O6" s="403"/>
       <c r="P6" s="229"/>
-      <c r="Q6" s="474"/>
-      <c r="R6" s="474"/>
+      <c r="Q6" s="403"/>
+      <c r="R6" s="403"/>
       <c r="S6" s="229"/>
     </row>
     <row r="7" spans="1:19" ht="24" customHeight="1">
-      <c r="A7" s="481"/>
+      <c r="A7" s="500"/>
       <c r="B7" s="287" t="s">
         <v>103</v>
       </c>
@@ -20536,24 +20545,24 @@
       <c r="D7" s="289" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="472"/>
-      <c r="F7" s="472"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="472"/>
-      <c r="I7" s="472"/>
-      <c r="J7" s="472"/>
-      <c r="K7" s="472"/>
-      <c r="L7" s="472"/>
-      <c r="M7" s="472"/>
-      <c r="N7" s="472"/>
-      <c r="O7" s="472"/>
+      <c r="E7" s="486"/>
+      <c r="F7" s="486"/>
+      <c r="G7" s="486"/>
+      <c r="H7" s="486"/>
+      <c r="I7" s="486"/>
+      <c r="J7" s="486"/>
+      <c r="K7" s="486"/>
+      <c r="L7" s="486"/>
+      <c r="M7" s="486"/>
+      <c r="N7" s="486"/>
+      <c r="O7" s="486"/>
       <c r="P7" s="290"/>
-      <c r="Q7" s="472"/>
-      <c r="R7" s="472"/>
+      <c r="Q7" s="486"/>
+      <c r="R7" s="486"/>
       <c r="S7" s="290"/>
     </row>
     <row r="8" spans="1:19" ht="24" customHeight="1">
-      <c r="A8" s="481"/>
+      <c r="A8" s="500"/>
       <c r="B8" s="147" t="s">
         <v>101</v>
       </c>
@@ -20563,24 +20572,24 @@
       <c r="D8" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="474"/>
-      <c r="F8" s="474"/>
-      <c r="G8" s="474"/>
-      <c r="H8" s="474"/>
-      <c r="I8" s="474"/>
-      <c r="J8" s="474"/>
-      <c r="K8" s="474"/>
-      <c r="L8" s="474"/>
-      <c r="M8" s="474"/>
-      <c r="N8" s="474"/>
-      <c r="O8" s="474"/>
+      <c r="E8" s="403"/>
+      <c r="F8" s="403"/>
+      <c r="G8" s="403"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="403"/>
+      <c r="J8" s="403"/>
+      <c r="K8" s="403"/>
+      <c r="L8" s="403"/>
+      <c r="M8" s="403"/>
+      <c r="N8" s="403"/>
+      <c r="O8" s="403"/>
       <c r="P8" s="229"/>
-      <c r="Q8" s="474"/>
-      <c r="R8" s="474"/>
+      <c r="Q8" s="403"/>
+      <c r="R8" s="403"/>
       <c r="S8" s="229"/>
     </row>
     <row r="9" spans="1:19" ht="24" customHeight="1">
-      <c r="A9" s="481"/>
+      <c r="A9" s="500"/>
       <c r="B9" s="287" t="s">
         <v>269</v>
       </c>
@@ -20590,20 +20599,20 @@
       <c r="D9" s="289" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="472"/>
-      <c r="F9" s="472"/>
-      <c r="G9" s="472"/>
-      <c r="H9" s="472"/>
-      <c r="I9" s="472"/>
-      <c r="J9" s="472"/>
-      <c r="K9" s="472"/>
-      <c r="L9" s="472"/>
-      <c r="M9" s="472"/>
-      <c r="N9" s="472"/>
-      <c r="O9" s="472"/>
+      <c r="E9" s="486"/>
+      <c r="F9" s="486"/>
+      <c r="G9" s="486"/>
+      <c r="H9" s="486"/>
+      <c r="I9" s="486"/>
+      <c r="J9" s="486"/>
+      <c r="K9" s="486"/>
+      <c r="L9" s="486"/>
+      <c r="M9" s="486"/>
+      <c r="N9" s="486"/>
+      <c r="O9" s="486"/>
       <c r="P9" s="290"/>
-      <c r="Q9" s="472"/>
-      <c r="R9" s="472"/>
+      <c r="Q9" s="486"/>
+      <c r="R9" s="486"/>
       <c r="S9" s="290"/>
     </row>
     <row r="10" spans="1:19" ht="24" customHeight="1">
@@ -20617,20 +20626,20 @@
       <c r="D10" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="E10" s="474"/>
-      <c r="F10" s="474"/>
-      <c r="G10" s="474"/>
-      <c r="H10" s="474"/>
-      <c r="I10" s="474"/>
-      <c r="J10" s="474"/>
-      <c r="K10" s="474"/>
-      <c r="L10" s="474"/>
-      <c r="M10" s="474"/>
-      <c r="N10" s="474"/>
-      <c r="O10" s="474"/>
+      <c r="E10" s="403"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="403"/>
+      <c r="H10" s="403"/>
+      <c r="I10" s="403"/>
+      <c r="J10" s="403"/>
+      <c r="K10" s="403"/>
+      <c r="L10" s="403"/>
+      <c r="M10" s="403"/>
+      <c r="N10" s="403"/>
+      <c r="O10" s="403"/>
       <c r="P10" s="229"/>
-      <c r="Q10" s="474"/>
-      <c r="R10" s="474"/>
+      <c r="Q10" s="403"/>
+      <c r="R10" s="403"/>
       <c r="S10" s="229"/>
     </row>
     <row r="11" spans="1:19" ht="24" customHeight="1" thickBot="1">
@@ -20644,24 +20653,24 @@
       <c r="D11" s="292" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="475"/>
-      <c r="F11" s="475"/>
-      <c r="G11" s="475"/>
-      <c r="H11" s="475"/>
-      <c r="I11" s="475"/>
-      <c r="J11" s="475"/>
-      <c r="K11" s="475"/>
-      <c r="L11" s="475"/>
-      <c r="M11" s="475"/>
-      <c r="N11" s="475"/>
-      <c r="O11" s="475"/>
+      <c r="E11" s="488"/>
+      <c r="F11" s="488"/>
+      <c r="G11" s="488"/>
+      <c r="H11" s="488"/>
+      <c r="I11" s="488"/>
+      <c r="J11" s="488"/>
+      <c r="K11" s="488"/>
+      <c r="L11" s="488"/>
+      <c r="M11" s="488"/>
+      <c r="N11" s="488"/>
+      <c r="O11" s="488"/>
       <c r="P11" s="293"/>
-      <c r="Q11" s="475"/>
-      <c r="R11" s="475"/>
+      <c r="Q11" s="488"/>
+      <c r="R11" s="488"/>
       <c r="S11" s="293"/>
     </row>
     <row r="12" spans="1:19" ht="24" customHeight="1">
-      <c r="A12" s="476" t="s">
+      <c r="A12" s="495" t="s">
         <v>233</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -20673,24 +20682,24 @@
       <c r="D12" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="473"/>
-      <c r="F12" s="473"/>
-      <c r="G12" s="473"/>
-      <c r="H12" s="473"/>
-      <c r="I12" s="473"/>
-      <c r="J12" s="473"/>
-      <c r="K12" s="473"/>
-      <c r="L12" s="473"/>
-      <c r="M12" s="473"/>
-      <c r="N12" s="473"/>
-      <c r="O12" s="473"/>
+      <c r="E12" s="487"/>
+      <c r="F12" s="487"/>
+      <c r="G12" s="487"/>
+      <c r="H12" s="487"/>
+      <c r="I12" s="487"/>
+      <c r="J12" s="487"/>
+      <c r="K12" s="487"/>
+      <c r="L12" s="487"/>
+      <c r="M12" s="487"/>
+      <c r="N12" s="487"/>
+      <c r="O12" s="487"/>
       <c r="P12" s="259"/>
-      <c r="Q12" s="473"/>
-      <c r="R12" s="473"/>
+      <c r="Q12" s="487"/>
+      <c r="R12" s="487"/>
       <c r="S12" s="259"/>
     </row>
     <row r="13" spans="1:19" ht="24" customHeight="1">
-      <c r="A13" s="477"/>
+      <c r="A13" s="496"/>
       <c r="B13" s="287" t="s">
         <v>108</v>
       </c>
@@ -20700,24 +20709,24 @@
       <c r="D13" s="289" t="s">
         <v>372</v>
       </c>
-      <c r="E13" s="472"/>
-      <c r="F13" s="472"/>
-      <c r="G13" s="472"/>
-      <c r="H13" s="472"/>
-      <c r="I13" s="472"/>
-      <c r="J13" s="472"/>
-      <c r="K13" s="472"/>
-      <c r="L13" s="472"/>
-      <c r="M13" s="472"/>
-      <c r="N13" s="472"/>
-      <c r="O13" s="472"/>
+      <c r="E13" s="486"/>
+      <c r="F13" s="486"/>
+      <c r="G13" s="486"/>
+      <c r="H13" s="486"/>
+      <c r="I13" s="486"/>
+      <c r="J13" s="486"/>
+      <c r="K13" s="486"/>
+      <c r="L13" s="486"/>
+      <c r="M13" s="486"/>
+      <c r="N13" s="486"/>
+      <c r="O13" s="486"/>
       <c r="P13" s="290"/>
-      <c r="Q13" s="472"/>
-      <c r="R13" s="472"/>
+      <c r="Q13" s="486"/>
+      <c r="R13" s="486"/>
       <c r="S13" s="290"/>
     </row>
     <row r="14" spans="1:19" ht="24" customHeight="1">
-      <c r="A14" s="478"/>
+      <c r="A14" s="497"/>
       <c r="B14" s="147" t="s">
         <v>96</v>
       </c>
@@ -20727,24 +20736,24 @@
       <c r="D14" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="482"/>
-      <c r="F14" s="474"/>
-      <c r="G14" s="474"/>
-      <c r="H14" s="474"/>
-      <c r="I14" s="474"/>
-      <c r="J14" s="474"/>
-      <c r="K14" s="474"/>
-      <c r="L14" s="474"/>
-      <c r="M14" s="474"/>
-      <c r="N14" s="474"/>
-      <c r="O14" s="474"/>
+      <c r="E14" s="501"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="403"/>
+      <c r="H14" s="403"/>
+      <c r="I14" s="403"/>
+      <c r="J14" s="403"/>
+      <c r="K14" s="403"/>
+      <c r="L14" s="403"/>
+      <c r="M14" s="403"/>
+      <c r="N14" s="403"/>
+      <c r="O14" s="403"/>
       <c r="P14" s="229"/>
-      <c r="Q14" s="474"/>
-      <c r="R14" s="474"/>
+      <c r="Q14" s="403"/>
+      <c r="R14" s="403"/>
       <c r="S14" s="229"/>
     </row>
     <row r="15" spans="1:19" ht="24" customHeight="1">
-      <c r="A15" s="478"/>
+      <c r="A15" s="497"/>
       <c r="B15" s="287" t="s">
         <v>97</v>
       </c>
@@ -20754,24 +20763,24 @@
       <c r="D15" s="289" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="440"/>
-      <c r="F15" s="472"/>
-      <c r="G15" s="472"/>
-      <c r="H15" s="472"/>
-      <c r="I15" s="472"/>
-      <c r="J15" s="472"/>
-      <c r="K15" s="472"/>
-      <c r="L15" s="472"/>
-      <c r="M15" s="472"/>
-      <c r="N15" s="472"/>
-      <c r="O15" s="472"/>
+      <c r="E15" s="456"/>
+      <c r="F15" s="486"/>
+      <c r="G15" s="486"/>
+      <c r="H15" s="486"/>
+      <c r="I15" s="486"/>
+      <c r="J15" s="486"/>
+      <c r="K15" s="486"/>
+      <c r="L15" s="486"/>
+      <c r="M15" s="486"/>
+      <c r="N15" s="486"/>
+      <c r="O15" s="486"/>
       <c r="P15" s="290"/>
-      <c r="Q15" s="472"/>
-      <c r="R15" s="472"/>
+      <c r="Q15" s="486"/>
+      <c r="R15" s="486"/>
       <c r="S15" s="290"/>
     </row>
     <row r="16" spans="1:19" ht="24" customHeight="1" thickBot="1">
-      <c r="A16" s="479"/>
+      <c r="A16" s="498"/>
       <c r="B16" s="147"/>
       <c r="C16" s="179"/>
       <c r="E16" s="483"/>
@@ -20795,20 +20804,20 @@
       <c r="B17" s="294"/>
       <c r="C17" s="294"/>
       <c r="D17" s="295"/>
-      <c r="E17" s="489"/>
-      <c r="F17" s="489"/>
-      <c r="G17" s="489"/>
-      <c r="H17" s="489"/>
-      <c r="I17" s="489"/>
-      <c r="J17" s="489"/>
-      <c r="K17" s="489"/>
-      <c r="L17" s="489"/>
-      <c r="M17" s="489"/>
-      <c r="N17" s="489"/>
-      <c r="O17" s="489"/>
+      <c r="E17" s="484"/>
+      <c r="F17" s="484"/>
+      <c r="G17" s="484"/>
+      <c r="H17" s="484"/>
+      <c r="I17" s="484"/>
+      <c r="J17" s="484"/>
+      <c r="K17" s="484"/>
+      <c r="L17" s="484"/>
+      <c r="M17" s="484"/>
+      <c r="N17" s="484"/>
+      <c r="O17" s="484"/>
       <c r="P17" s="296"/>
-      <c r="Q17" s="489"/>
-      <c r="R17" s="489"/>
+      <c r="Q17" s="484"/>
+      <c r="R17" s="484"/>
       <c r="S17" s="296"/>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1">
@@ -20816,171 +20825,171 @@
       <c r="B18" s="177"/>
       <c r="C18" s="274"/>
       <c r="D18" s="262"/>
-      <c r="E18" s="490"/>
-      <c r="F18" s="490"/>
-      <c r="G18" s="490"/>
-      <c r="H18" s="490"/>
-      <c r="I18" s="490"/>
-      <c r="J18" s="490"/>
-      <c r="K18" s="490"/>
-      <c r="L18" s="490"/>
-      <c r="M18" s="490"/>
-      <c r="N18" s="490"/>
-      <c r="O18" s="490"/>
+      <c r="E18" s="485"/>
+      <c r="F18" s="485"/>
+      <c r="G18" s="485"/>
+      <c r="H18" s="485"/>
+      <c r="I18" s="485"/>
+      <c r="J18" s="485"/>
+      <c r="K18" s="485"/>
+      <c r="L18" s="485"/>
+      <c r="M18" s="485"/>
+      <c r="N18" s="485"/>
+      <c r="O18" s="485"/>
       <c r="P18" s="230"/>
-      <c r="Q18" s="490"/>
-      <c r="R18" s="490"/>
+      <c r="Q18" s="485"/>
+      <c r="R18" s="485"/>
       <c r="S18" s="230"/>
       <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="24" customHeight="1">
-      <c r="A19" s="481"/>
+      <c r="A19" s="500"/>
       <c r="B19" s="297"/>
       <c r="C19" s="298"/>
       <c r="D19" s="299"/>
-      <c r="E19" s="472"/>
-      <c r="F19" s="472"/>
-      <c r="G19" s="472"/>
-      <c r="H19" s="472"/>
-      <c r="I19" s="472"/>
-      <c r="J19" s="472"/>
-      <c r="K19" s="472"/>
-      <c r="L19" s="472"/>
-      <c r="M19" s="472"/>
-      <c r="N19" s="472"/>
-      <c r="O19" s="472"/>
+      <c r="E19" s="486"/>
+      <c r="F19" s="486"/>
+      <c r="G19" s="486"/>
+      <c r="H19" s="486"/>
+      <c r="I19" s="486"/>
+      <c r="J19" s="486"/>
+      <c r="K19" s="486"/>
+      <c r="L19" s="486"/>
+      <c r="M19" s="486"/>
+      <c r="N19" s="486"/>
+      <c r="O19" s="486"/>
       <c r="P19" s="290"/>
-      <c r="Q19" s="472"/>
-      <c r="R19" s="472"/>
+      <c r="Q19" s="486"/>
+      <c r="R19" s="486"/>
       <c r="S19" s="290"/>
     </row>
     <row r="20" spans="1:20" ht="24" customHeight="1">
-      <c r="A20" s="481"/>
+      <c r="A20" s="500"/>
       <c r="B20" s="177"/>
       <c r="C20" s="178"/>
       <c r="D20" s="92"/>
-      <c r="E20" s="474"/>
-      <c r="F20" s="474"/>
-      <c r="G20" s="474"/>
-      <c r="H20" s="474"/>
-      <c r="I20" s="474"/>
-      <c r="J20" s="474"/>
-      <c r="K20" s="474"/>
-      <c r="L20" s="474"/>
-      <c r="M20" s="474"/>
-      <c r="N20" s="474"/>
-      <c r="O20" s="474"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
+      <c r="G20" s="403"/>
+      <c r="H20" s="403"/>
+      <c r="I20" s="403"/>
+      <c r="J20" s="403"/>
+      <c r="K20" s="403"/>
+      <c r="L20" s="403"/>
+      <c r="M20" s="403"/>
+      <c r="N20" s="403"/>
+      <c r="O20" s="403"/>
       <c r="P20" s="229"/>
-      <c r="Q20" s="474"/>
-      <c r="R20" s="474"/>
+      <c r="Q20" s="403"/>
+      <c r="R20" s="403"/>
       <c r="S20" s="229"/>
     </row>
     <row r="21" spans="1:20" ht="24" customHeight="1">
-      <c r="A21" s="481"/>
+      <c r="A21" s="500"/>
       <c r="B21" s="297"/>
       <c r="C21" s="298"/>
       <c r="D21" s="299"/>
-      <c r="E21" s="472"/>
-      <c r="F21" s="472"/>
-      <c r="G21" s="472"/>
-      <c r="H21" s="472"/>
-      <c r="I21" s="472"/>
-      <c r="J21" s="472"/>
-      <c r="K21" s="472"/>
-      <c r="L21" s="472"/>
-      <c r="M21" s="472"/>
-      <c r="N21" s="472"/>
-      <c r="O21" s="472"/>
+      <c r="E21" s="486"/>
+      <c r="F21" s="486"/>
+      <c r="G21" s="486"/>
+      <c r="H21" s="486"/>
+      <c r="I21" s="486"/>
+      <c r="J21" s="486"/>
+      <c r="K21" s="486"/>
+      <c r="L21" s="486"/>
+      <c r="M21" s="486"/>
+      <c r="N21" s="486"/>
+      <c r="O21" s="486"/>
       <c r="P21" s="290"/>
-      <c r="Q21" s="472"/>
-      <c r="R21" s="472"/>
+      <c r="Q21" s="486"/>
+      <c r="R21" s="486"/>
       <c r="S21" s="290"/>
     </row>
     <row r="22" spans="1:20" ht="24" customHeight="1">
-      <c r="A22" s="481"/>
+      <c r="A22" s="500"/>
       <c r="B22" s="177"/>
       <c r="C22" s="178"/>
       <c r="D22" s="92"/>
-      <c r="E22" s="474"/>
-      <c r="F22" s="474"/>
-      <c r="G22" s="474"/>
-      <c r="H22" s="474"/>
-      <c r="I22" s="474"/>
-      <c r="J22" s="474"/>
-      <c r="K22" s="474"/>
-      <c r="L22" s="474"/>
-      <c r="M22" s="474"/>
-      <c r="N22" s="474"/>
-      <c r="O22" s="474"/>
+      <c r="E22" s="403"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="403"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="403"/>
+      <c r="J22" s="403"/>
+      <c r="K22" s="403"/>
+      <c r="L22" s="403"/>
+      <c r="M22" s="403"/>
+      <c r="N22" s="403"/>
+      <c r="O22" s="403"/>
       <c r="P22" s="229"/>
-      <c r="Q22" s="474"/>
-      <c r="R22" s="474"/>
+      <c r="Q22" s="403"/>
+      <c r="R22" s="403"/>
       <c r="S22" s="229"/>
       <c r="T22" s="14"/>
     </row>
     <row r="23" spans="1:20" ht="24" customHeight="1">
-      <c r="A23" s="481"/>
+      <c r="A23" s="500"/>
       <c r="B23" s="297"/>
       <c r="C23" s="298"/>
       <c r="D23" s="299"/>
-      <c r="E23" s="472"/>
-      <c r="F23" s="472"/>
-      <c r="G23" s="472"/>
-      <c r="H23" s="472"/>
-      <c r="I23" s="472"/>
-      <c r="J23" s="472"/>
-      <c r="K23" s="472"/>
-      <c r="L23" s="472"/>
-      <c r="M23" s="472"/>
-      <c r="N23" s="472"/>
-      <c r="O23" s="472"/>
+      <c r="E23" s="486"/>
+      <c r="F23" s="486"/>
+      <c r="G23" s="486"/>
+      <c r="H23" s="486"/>
+      <c r="I23" s="486"/>
+      <c r="J23" s="486"/>
+      <c r="K23" s="486"/>
+      <c r="L23" s="486"/>
+      <c r="M23" s="486"/>
+      <c r="N23" s="486"/>
+      <c r="O23" s="486"/>
       <c r="P23" s="290"/>
-      <c r="Q23" s="472"/>
-      <c r="R23" s="472"/>
+      <c r="Q23" s="486"/>
+      <c r="R23" s="486"/>
       <c r="S23" s="290"/>
       <c r="T23" s="14"/>
     </row>
     <row r="24" spans="1:20" ht="24" customHeight="1">
-      <c r="A24" s="481"/>
+      <c r="A24" s="500"/>
       <c r="B24" s="177"/>
       <c r="C24" s="178"/>
       <c r="D24" s="92"/>
-      <c r="E24" s="474"/>
-      <c r="F24" s="474"/>
-      <c r="G24" s="474"/>
-      <c r="H24" s="474"/>
-      <c r="I24" s="474"/>
-      <c r="J24" s="474"/>
-      <c r="K24" s="474"/>
-      <c r="L24" s="474"/>
-      <c r="M24" s="474"/>
-      <c r="N24" s="474"/>
-      <c r="O24" s="474"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="403"/>
+      <c r="H24" s="403"/>
+      <c r="I24" s="403"/>
+      <c r="J24" s="403"/>
+      <c r="K24" s="403"/>
+      <c r="L24" s="403"/>
+      <c r="M24" s="403"/>
+      <c r="N24" s="403"/>
+      <c r="O24" s="403"/>
       <c r="P24" s="229"/>
-      <c r="Q24" s="474"/>
-      <c r="R24" s="474"/>
+      <c r="Q24" s="403"/>
+      <c r="R24" s="403"/>
       <c r="S24" s="229"/>
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:20" ht="24" customHeight="1">
-      <c r="A25" s="481"/>
+      <c r="A25" s="500"/>
       <c r="B25" s="297"/>
       <c r="C25" s="298"/>
       <c r="D25" s="299"/>
-      <c r="E25" s="472"/>
-      <c r="F25" s="472"/>
-      <c r="G25" s="472"/>
-      <c r="H25" s="472"/>
-      <c r="I25" s="472"/>
-      <c r="J25" s="472"/>
-      <c r="K25" s="472"/>
-      <c r="L25" s="472"/>
-      <c r="M25" s="472"/>
-      <c r="N25" s="472"/>
-      <c r="O25" s="472"/>
+      <c r="E25" s="486"/>
+      <c r="F25" s="486"/>
+      <c r="G25" s="486"/>
+      <c r="H25" s="486"/>
+      <c r="I25" s="486"/>
+      <c r="J25" s="486"/>
+      <c r="K25" s="486"/>
+      <c r="L25" s="486"/>
+      <c r="M25" s="486"/>
+      <c r="N25" s="486"/>
+      <c r="O25" s="486"/>
       <c r="P25" s="290"/>
-      <c r="Q25" s="472"/>
-      <c r="R25" s="472"/>
+      <c r="Q25" s="486"/>
+      <c r="R25" s="486"/>
       <c r="S25" s="290"/>
       <c r="T25" s="14"/>
     </row>
@@ -21182,10 +21191,10 @@
       </c>
       <c r="F34" s="258"/>
       <c r="G34" s="258"/>
-      <c r="H34" s="484" t="s">
+      <c r="H34" s="492" t="s">
         <v>218</v>
       </c>
-      <c r="I34" s="484"/>
+      <c r="I34" s="492"/>
       <c r="J34" s="254"/>
       <c r="K34" s="254"/>
       <c r="L34" s="254"/>
@@ -21208,8 +21217,8 @@
       </c>
       <c r="F35" s="258"/>
       <c r="G35" s="258"/>
-      <c r="H35" s="484"/>
-      <c r="I35" s="484"/>
+      <c r="H35" s="492"/>
+      <c r="I35" s="492"/>
       <c r="J35" s="254"/>
       <c r="K35" s="254"/>
       <c r="L35" s="254"/>
@@ -21231,8 +21240,8 @@
       </c>
       <c r="F36" s="258"/>
       <c r="G36" s="258"/>
-      <c r="H36" s="484"/>
-      <c r="I36" s="484"/>
+      <c r="H36" s="492"/>
+      <c r="I36" s="492"/>
       <c r="J36" s="254"/>
       <c r="K36" s="254"/>
       <c r="L36" s="254"/>
@@ -21245,17 +21254,73 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H34:I36"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
@@ -21272,77 +21337,21 @@
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="H34:I36"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.03" right="0.75" top="0.51" bottom="0.22" header="0" footer="0"/>
-  <pageSetup scale="77" orientation="landscape" horizontalDpi="96"/>
+  <pageSetup scale="75" orientation="landscape" horizontalDpi="96"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8_x000D__x000D_&amp;"Arial,Regular"KEEN GOM BENTHIC MONITORING DATA&amp;C&amp;"Arial,Bold"&amp;14_x000D_FISH COUNTS&amp;R&amp;"Helvetica,Regular"Scanned by: ____________________
 Date scanned: __________________</oddHeader>
@@ -21363,7 +21372,7 @@
   </sheetPr>
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -21386,19 +21395,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="191" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="492" t="s">
+      <c r="A1" s="502" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="492"/>
-      <c r="C1" s="492"/>
-      <c r="D1" s="493" t="s">
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="503" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="493"/>
-      <c r="F1" s="492" t="s">
+      <c r="E1" s="503"/>
+      <c r="F1" s="502" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="492"/>
+      <c r="G1" s="502"/>
       <c r="J1" s="190"/>
       <c r="M1" s="193"/>
       <c r="P1" s="193"/>
@@ -21472,11 +21481,11 @@
       <c r="F5" s="189" t="s">
         <v>416</v>
       </c>
-      <c r="G5" s="494" t="s">
+      <c r="G5" s="504" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="495"/>
-      <c r="I5" s="495"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="505"/>
       <c r="J5" s="149"/>
       <c r="L5" s="149"/>
     </row>
@@ -22126,42 +22135,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="388" t="s">
+      <c r="B1" s="389" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388" t="s">
+      <c r="C1" s="389"/>
+      <c r="D1" s="389" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="438" t="s">
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="432" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="438"/>
-      <c r="I1" s="438"/>
-      <c r="J1" s="388" t="s">
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="389" t="s">
         <v>343</v>
       </c>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
       <c r="N1" s="94"/>
       <c r="O1" s="121"/>
     </row>
     <row r="2" spans="2:15" s="15" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="438"/>
-      <c r="H2" s="438"/>
-      <c r="I2" s="438"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
       <c r="N2" s="94"/>
       <c r="O2" s="121"/>
     </row>
@@ -22202,573 +22211,573 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="200"/>
-      <c r="C5" s="424" t="s">
+      <c r="C5" s="445" t="s">
         <v>580</v>
       </c>
-      <c r="D5" s="425"/>
-      <c r="E5" s="426"/>
-      <c r="F5" s="427"/>
-      <c r="G5" s="424" t="s">
+      <c r="D5" s="446"/>
+      <c r="E5" s="447"/>
+      <c r="F5" s="448"/>
+      <c r="G5" s="445" t="s">
         <v>581</v>
       </c>
-      <c r="H5" s="425"/>
+      <c r="H5" s="446"/>
       <c r="I5" s="358"/>
-      <c r="J5" s="498" t="s">
+      <c r="J5" s="534" t="s">
         <v>309</v>
       </c>
-      <c r="K5" s="498"/>
-      <c r="L5" s="500" t="s">
+      <c r="K5" s="534"/>
+      <c r="L5" s="536" t="s">
         <v>310</v>
       </c>
-      <c r="M5" s="501"/>
+      <c r="M5" s="537"/>
       <c r="N5" s="359"/>
     </row>
     <row r="6" spans="2:15" s="9" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="341" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="430" t="s">
+      <c r="C6" s="443" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="431"/>
-      <c r="E6" s="496" t="s">
+      <c r="D6" s="444"/>
+      <c r="E6" s="532" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="497"/>
-      <c r="G6" s="430" t="s">
+      <c r="F6" s="533"/>
+      <c r="G6" s="443" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="431"/>
+      <c r="H6" s="444"/>
       <c r="I6" s="356" t="s">
         <v>582</v>
       </c>
-      <c r="J6" s="499" t="s">
+      <c r="J6" s="535" t="s">
         <v>393</v>
       </c>
-      <c r="K6" s="499"/>
-      <c r="L6" s="502" t="s">
+      <c r="K6" s="535"/>
+      <c r="L6" s="538" t="s">
         <v>393</v>
       </c>
-      <c r="M6" s="503"/>
+      <c r="M6" s="539"/>
       <c r="N6" s="357"/>
     </row>
     <row r="7" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="275" t="s">
         <v>513</v>
       </c>
-      <c r="C7" s="428"/>
-      <c r="D7" s="429"/>
-      <c r="E7" s="508" t="s">
+      <c r="C7" s="437"/>
+      <c r="D7" s="438"/>
+      <c r="E7" s="524" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="509"/>
-      <c r="G7" s="428"/>
-      <c r="H7" s="429"/>
+      <c r="F7" s="525"/>
+      <c r="G7" s="437"/>
+      <c r="H7" s="438"/>
       <c r="I7" s="370">
         <v>1</v>
       </c>
-      <c r="J7" s="516"/>
-      <c r="K7" s="516"/>
-      <c r="L7" s="504"/>
-      <c r="M7" s="505"/>
+      <c r="J7" s="506"/>
+      <c r="K7" s="506"/>
+      <c r="L7" s="522"/>
+      <c r="M7" s="523"/>
       <c r="N7" s="351"/>
     </row>
     <row r="8" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B8" s="278" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="422"/>
-      <c r="D8" s="423"/>
-      <c r="E8" s="514" t="s">
+      <c r="C8" s="435"/>
+      <c r="D8" s="436"/>
+      <c r="E8" s="530" t="s">
         <v>435</v>
       </c>
-      <c r="F8" s="515"/>
-      <c r="G8" s="422"/>
-      <c r="H8" s="423"/>
+      <c r="F8" s="531"/>
+      <c r="G8" s="435"/>
+      <c r="H8" s="436"/>
       <c r="I8" s="364">
         <v>2</v>
       </c>
-      <c r="J8" s="517"/>
-      <c r="K8" s="517"/>
-      <c r="L8" s="506"/>
-      <c r="M8" s="507"/>
+      <c r="J8" s="507"/>
+      <c r="K8" s="507"/>
+      <c r="L8" s="514"/>
+      <c r="M8" s="515"/>
       <c r="N8" s="349"/>
     </row>
     <row r="9" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B9" s="275" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="386"/>
-      <c r="D9" s="387"/>
-      <c r="E9" s="512" t="s">
+      <c r="C9" s="377"/>
+      <c r="D9" s="378"/>
+      <c r="E9" s="528" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="513"/>
-      <c r="G9" s="386"/>
-      <c r="H9" s="387"/>
+      <c r="F9" s="529"/>
+      <c r="G9" s="377"/>
+      <c r="H9" s="378"/>
       <c r="I9" s="362">
         <v>3</v>
       </c>
-      <c r="J9" s="516"/>
-      <c r="K9" s="516"/>
-      <c r="L9" s="518"/>
-      <c r="M9" s="519"/>
+      <c r="J9" s="506"/>
+      <c r="K9" s="506"/>
+      <c r="L9" s="512"/>
+      <c r="M9" s="513"/>
       <c r="N9" s="345"/>
     </row>
     <row r="10" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B10" s="278" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="422"/>
-      <c r="D10" s="423"/>
-      <c r="E10" s="510" t="s">
+      <c r="C10" s="435"/>
+      <c r="D10" s="436"/>
+      <c r="E10" s="526" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="511"/>
-      <c r="G10" s="422"/>
-      <c r="H10" s="423"/>
+      <c r="F10" s="527"/>
+      <c r="G10" s="435"/>
+      <c r="H10" s="436"/>
       <c r="I10" s="364">
         <v>4</v>
       </c>
-      <c r="J10" s="517"/>
-      <c r="K10" s="517"/>
-      <c r="L10" s="506"/>
-      <c r="M10" s="507"/>
+      <c r="J10" s="507"/>
+      <c r="K10" s="507"/>
+      <c r="L10" s="514"/>
+      <c r="M10" s="515"/>
       <c r="N10" s="349"/>
     </row>
     <row r="11" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="276" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="432"/>
-      <c r="D11" s="433"/>
-      <c r="E11" s="508" t="s">
+      <c r="C11" s="439"/>
+      <c r="D11" s="440"/>
+      <c r="E11" s="524" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="509"/>
-      <c r="G11" s="432"/>
-      <c r="H11" s="433"/>
+      <c r="F11" s="525"/>
+      <c r="G11" s="439"/>
+      <c r="H11" s="440"/>
       <c r="I11" s="368">
         <v>5</v>
       </c>
-      <c r="J11" s="516"/>
-      <c r="K11" s="516"/>
-      <c r="L11" s="520"/>
-      <c r="M11" s="521"/>
+      <c r="J11" s="506"/>
+      <c r="K11" s="506"/>
+      <c r="L11" s="508"/>
+      <c r="M11" s="509"/>
       <c r="N11" s="353"/>
     </row>
     <row r="12" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B12" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="434"/>
-      <c r="D12" s="435"/>
-      <c r="E12" s="434"/>
-      <c r="F12" s="435"/>
-      <c r="G12" s="434"/>
-      <c r="H12" s="435"/>
+      <c r="C12" s="441"/>
+      <c r="D12" s="442"/>
+      <c r="E12" s="441"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="441"/>
+      <c r="H12" s="442"/>
       <c r="I12" s="366">
         <v>6</v>
       </c>
-      <c r="J12" s="517"/>
-      <c r="K12" s="517"/>
-      <c r="L12" s="522"/>
-      <c r="M12" s="523"/>
+      <c r="J12" s="507"/>
+      <c r="K12" s="507"/>
+      <c r="L12" s="510"/>
+      <c r="M12" s="511"/>
       <c r="N12" s="355"/>
     </row>
     <row r="13" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="386"/>
-      <c r="D13" s="387"/>
-      <c r="E13" s="528" t="s">
+      <c r="C13" s="377"/>
+      <c r="D13" s="378"/>
+      <c r="E13" s="520" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="529"/>
-      <c r="G13" s="386"/>
-      <c r="H13" s="387"/>
+      <c r="F13" s="521"/>
+      <c r="G13" s="377"/>
+      <c r="H13" s="378"/>
       <c r="I13" s="362">
         <v>7</v>
       </c>
-      <c r="J13" s="516"/>
-      <c r="K13" s="516"/>
-      <c r="L13" s="518"/>
-      <c r="M13" s="519"/>
+      <c r="J13" s="506"/>
+      <c r="K13" s="506"/>
+      <c r="L13" s="512"/>
+      <c r="M13" s="513"/>
       <c r="N13" s="345"/>
     </row>
     <row r="14" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B14" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="422"/>
-      <c r="D14" s="423"/>
-      <c r="E14" s="526" t="s">
+      <c r="C14" s="435"/>
+      <c r="D14" s="436"/>
+      <c r="E14" s="518" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="527"/>
-      <c r="G14" s="422"/>
-      <c r="H14" s="423"/>
+      <c r="F14" s="519"/>
+      <c r="G14" s="435"/>
+      <c r="H14" s="436"/>
       <c r="I14" s="364">
         <v>8</v>
       </c>
-      <c r="J14" s="517"/>
-      <c r="K14" s="517"/>
-      <c r="L14" s="506"/>
-      <c r="M14" s="507"/>
+      <c r="J14" s="507"/>
+      <c r="K14" s="507"/>
+      <c r="L14" s="514"/>
+      <c r="M14" s="515"/>
       <c r="N14" s="349"/>
     </row>
     <row r="15" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B15" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="386"/>
-      <c r="D15" s="387"/>
-      <c r="E15" s="386"/>
-      <c r="F15" s="387"/>
-      <c r="G15" s="386"/>
-      <c r="H15" s="387"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="378"/>
+      <c r="E15" s="377"/>
+      <c r="F15" s="378"/>
+      <c r="G15" s="377"/>
+      <c r="H15" s="378"/>
       <c r="I15" s="362">
         <v>9</v>
       </c>
-      <c r="J15" s="516"/>
-      <c r="K15" s="516"/>
-      <c r="L15" s="518"/>
-      <c r="M15" s="519"/>
+      <c r="J15" s="506"/>
+      <c r="K15" s="506"/>
+      <c r="L15" s="512"/>
+      <c r="M15" s="513"/>
       <c r="N15" s="345"/>
     </row>
     <row r="16" spans="2:15" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B16" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="436"/>
-      <c r="D16" s="437"/>
-      <c r="E16" s="436"/>
-      <c r="F16" s="437"/>
-      <c r="G16" s="436"/>
-      <c r="H16" s="437"/>
+      <c r="C16" s="433"/>
+      <c r="D16" s="434"/>
+      <c r="E16" s="433"/>
+      <c r="F16" s="434"/>
+      <c r="G16" s="433"/>
+      <c r="H16" s="434"/>
       <c r="I16" s="360">
         <v>10</v>
       </c>
-      <c r="J16" s="517"/>
-      <c r="K16" s="517"/>
-      <c r="L16" s="524"/>
-      <c r="M16" s="525"/>
+      <c r="J16" s="507"/>
+      <c r="K16" s="507"/>
+      <c r="L16" s="516"/>
+      <c r="M16" s="517"/>
       <c r="N16" s="347"/>
     </row>
     <row r="17" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B17" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="428"/>
-      <c r="D17" s="429"/>
-      <c r="E17" s="428"/>
-      <c r="F17" s="429"/>
-      <c r="G17" s="428"/>
-      <c r="H17" s="429"/>
+      <c r="C17" s="437"/>
+      <c r="D17" s="438"/>
+      <c r="E17" s="437"/>
+      <c r="F17" s="438"/>
+      <c r="G17" s="437"/>
+      <c r="H17" s="438"/>
       <c r="I17" s="370"/>
       <c r="J17" s="371"/>
-      <c r="K17" s="428"/>
-      <c r="L17" s="429"/>
-      <c r="M17" s="428"/>
-      <c r="N17" s="429"/>
+      <c r="K17" s="437"/>
+      <c r="L17" s="438"/>
+      <c r="M17" s="437"/>
+      <c r="N17" s="438"/>
     </row>
     <row r="18" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B18" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="422"/>
-      <c r="D18" s="423"/>
-      <c r="E18" s="422"/>
-      <c r="F18" s="423"/>
-      <c r="G18" s="422"/>
-      <c r="H18" s="423"/>
+      <c r="C18" s="435"/>
+      <c r="D18" s="436"/>
+      <c r="E18" s="435"/>
+      <c r="F18" s="436"/>
+      <c r="G18" s="435"/>
+      <c r="H18" s="436"/>
       <c r="I18" s="364"/>
       <c r="J18" s="365"/>
-      <c r="K18" s="422"/>
-      <c r="L18" s="423"/>
-      <c r="M18" s="422"/>
-      <c r="N18" s="423"/>
+      <c r="K18" s="435"/>
+      <c r="L18" s="436"/>
+      <c r="M18" s="435"/>
+      <c r="N18" s="436"/>
     </row>
     <row r="19" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B19" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="386"/>
-      <c r="D19" s="387"/>
-      <c r="E19" s="386"/>
-      <c r="F19" s="387"/>
-      <c r="G19" s="386"/>
-      <c r="H19" s="387"/>
+      <c r="C19" s="377"/>
+      <c r="D19" s="378"/>
+      <c r="E19" s="377"/>
+      <c r="F19" s="378"/>
+      <c r="G19" s="377"/>
+      <c r="H19" s="378"/>
       <c r="I19" s="362"/>
       <c r="J19" s="363"/>
-      <c r="K19" s="386"/>
-      <c r="L19" s="387"/>
-      <c r="M19" s="386"/>
-      <c r="N19" s="387"/>
+      <c r="K19" s="377"/>
+      <c r="L19" s="378"/>
+      <c r="M19" s="377"/>
+      <c r="N19" s="378"/>
     </row>
     <row r="20" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B20" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="422"/>
-      <c r="D20" s="423"/>
-      <c r="E20" s="422"/>
-      <c r="F20" s="423"/>
-      <c r="G20" s="422"/>
-      <c r="H20" s="423"/>
+      <c r="C20" s="435"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="435"/>
+      <c r="F20" s="436"/>
+      <c r="G20" s="435"/>
+      <c r="H20" s="436"/>
       <c r="I20" s="364"/>
       <c r="J20" s="365"/>
-      <c r="K20" s="422"/>
-      <c r="L20" s="423"/>
-      <c r="M20" s="422"/>
-      <c r="N20" s="423"/>
+      <c r="K20" s="435"/>
+      <c r="L20" s="436"/>
+      <c r="M20" s="435"/>
+      <c r="N20" s="436"/>
     </row>
     <row r="21" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B21" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="432"/>
-      <c r="D21" s="433"/>
-      <c r="E21" s="432"/>
-      <c r="F21" s="433"/>
-      <c r="G21" s="432"/>
-      <c r="H21" s="433"/>
+      <c r="C21" s="439"/>
+      <c r="D21" s="440"/>
+      <c r="E21" s="439"/>
+      <c r="F21" s="440"/>
+      <c r="G21" s="439"/>
+      <c r="H21" s="440"/>
       <c r="I21" s="368"/>
       <c r="J21" s="369"/>
-      <c r="K21" s="432"/>
-      <c r="L21" s="433"/>
-      <c r="M21" s="432"/>
-      <c r="N21" s="433"/>
+      <c r="K21" s="439"/>
+      <c r="L21" s="440"/>
+      <c r="M21" s="439"/>
+      <c r="N21" s="440"/>
     </row>
     <row r="22" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="434"/>
-      <c r="D22" s="435"/>
-      <c r="E22" s="434"/>
-      <c r="F22" s="435"/>
-      <c r="G22" s="434"/>
-      <c r="H22" s="435"/>
+      <c r="C22" s="441"/>
+      <c r="D22" s="442"/>
+      <c r="E22" s="441"/>
+      <c r="F22" s="442"/>
+      <c r="G22" s="441"/>
+      <c r="H22" s="442"/>
       <c r="I22" s="366"/>
       <c r="J22" s="367"/>
-      <c r="K22" s="434"/>
-      <c r="L22" s="435"/>
-      <c r="M22" s="434"/>
-      <c r="N22" s="435"/>
+      <c r="K22" s="441"/>
+      <c r="L22" s="442"/>
+      <c r="M22" s="441"/>
+      <c r="N22" s="442"/>
     </row>
     <row r="23" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="386"/>
-      <c r="D23" s="387"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="387"/>
-      <c r="G23" s="386"/>
-      <c r="H23" s="387"/>
+      <c r="C23" s="377"/>
+      <c r="D23" s="378"/>
+      <c r="E23" s="377"/>
+      <c r="F23" s="378"/>
+      <c r="G23" s="377"/>
+      <c r="H23" s="378"/>
       <c r="I23" s="362"/>
       <c r="J23" s="363"/>
-      <c r="K23" s="386"/>
-      <c r="L23" s="387"/>
-      <c r="M23" s="386"/>
-      <c r="N23" s="387"/>
+      <c r="K23" s="377"/>
+      <c r="L23" s="378"/>
+      <c r="M23" s="377"/>
+      <c r="N23" s="378"/>
     </row>
     <row r="24" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B24" s="278"/>
-      <c r="C24" s="422"/>
-      <c r="D24" s="423"/>
-      <c r="E24" s="422"/>
-      <c r="F24" s="423"/>
-      <c r="G24" s="422"/>
-      <c r="H24" s="423"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="435"/>
+      <c r="F24" s="436"/>
+      <c r="G24" s="435"/>
+      <c r="H24" s="436"/>
       <c r="I24" s="364"/>
       <c r="J24" s="365"/>
-      <c r="K24" s="422"/>
-      <c r="L24" s="423"/>
-      <c r="M24" s="422"/>
-      <c r="N24" s="423"/>
+      <c r="K24" s="435"/>
+      <c r="L24" s="436"/>
+      <c r="M24" s="435"/>
+      <c r="N24" s="436"/>
     </row>
     <row r="25" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B25" s="275"/>
-      <c r="C25" s="386"/>
-      <c r="D25" s="387"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="386"/>
-      <c r="H25" s="387"/>
+      <c r="C25" s="377"/>
+      <c r="D25" s="378"/>
+      <c r="E25" s="377"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="377"/>
+      <c r="H25" s="378"/>
       <c r="I25" s="362"/>
       <c r="J25" s="363"/>
-      <c r="K25" s="386"/>
-      <c r="L25" s="387"/>
-      <c r="M25" s="386"/>
-      <c r="N25" s="387"/>
+      <c r="K25" s="377"/>
+      <c r="L25" s="378"/>
+      <c r="M25" s="377"/>
+      <c r="N25" s="378"/>
     </row>
     <row r="26" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B26" s="280"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="437"/>
-      <c r="E26" s="436"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="436"/>
-      <c r="H26" s="437"/>
+      <c r="C26" s="433"/>
+      <c r="D26" s="434"/>
+      <c r="E26" s="433"/>
+      <c r="F26" s="434"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="434"/>
       <c r="I26" s="360"/>
       <c r="J26" s="361"/>
-      <c r="K26" s="436"/>
-      <c r="L26" s="437"/>
-      <c r="M26" s="436"/>
-      <c r="N26" s="437"/>
+      <c r="K26" s="433"/>
+      <c r="L26" s="434"/>
+      <c r="M26" s="433"/>
+      <c r="N26" s="434"/>
     </row>
     <row r="27" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B27" s="277"/>
-      <c r="C27" s="428"/>
-      <c r="D27" s="429"/>
-      <c r="E27" s="428"/>
-      <c r="F27" s="429"/>
-      <c r="G27" s="428"/>
-      <c r="H27" s="429"/>
+      <c r="C27" s="437"/>
+      <c r="D27" s="438"/>
+      <c r="E27" s="437"/>
+      <c r="F27" s="438"/>
+      <c r="G27" s="437"/>
+      <c r="H27" s="438"/>
       <c r="I27" s="350"/>
       <c r="J27" s="351"/>
-      <c r="K27" s="428"/>
-      <c r="L27" s="429"/>
-      <c r="M27" s="428"/>
-      <c r="N27" s="429"/>
+      <c r="K27" s="437"/>
+      <c r="L27" s="438"/>
+      <c r="M27" s="437"/>
+      <c r="N27" s="438"/>
     </row>
     <row r="28" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B28" s="278"/>
-      <c r="C28" s="422"/>
-      <c r="D28" s="423"/>
-      <c r="E28" s="422"/>
-      <c r="F28" s="423"/>
-      <c r="G28" s="422"/>
-      <c r="H28" s="423"/>
+      <c r="C28" s="435"/>
+      <c r="D28" s="436"/>
+      <c r="E28" s="435"/>
+      <c r="F28" s="436"/>
+      <c r="G28" s="435"/>
+      <c r="H28" s="436"/>
       <c r="I28" s="348"/>
       <c r="J28" s="349"/>
-      <c r="K28" s="422"/>
-      <c r="L28" s="423"/>
-      <c r="M28" s="422"/>
-      <c r="N28" s="387"/>
+      <c r="K28" s="435"/>
+      <c r="L28" s="436"/>
+      <c r="M28" s="435"/>
+      <c r="N28" s="378"/>
     </row>
     <row r="29" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B29" s="275"/>
-      <c r="C29" s="386"/>
-      <c r="D29" s="387"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="387"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
+      <c r="C29" s="377"/>
+      <c r="D29" s="378"/>
+      <c r="E29" s="377"/>
+      <c r="F29" s="378"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="378"/>
       <c r="I29" s="344"/>
       <c r="J29" s="345"/>
-      <c r="K29" s="386"/>
-      <c r="L29" s="387"/>
-      <c r="M29" s="386"/>
-      <c r="N29" s="387"/>
+      <c r="K29" s="377"/>
+      <c r="L29" s="378"/>
+      <c r="M29" s="377"/>
+      <c r="N29" s="378"/>
     </row>
     <row r="30" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B30" s="278"/>
-      <c r="C30" s="422"/>
-      <c r="D30" s="423"/>
-      <c r="E30" s="422"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="422"/>
-      <c r="H30" s="423"/>
+      <c r="C30" s="435"/>
+      <c r="D30" s="436"/>
+      <c r="E30" s="435"/>
+      <c r="F30" s="436"/>
+      <c r="G30" s="435"/>
+      <c r="H30" s="436"/>
       <c r="I30" s="348"/>
       <c r="J30" s="349"/>
-      <c r="K30" s="422"/>
-      <c r="L30" s="423"/>
-      <c r="M30" s="422"/>
-      <c r="N30" s="423"/>
+      <c r="K30" s="435"/>
+      <c r="L30" s="436"/>
+      <c r="M30" s="435"/>
+      <c r="N30" s="436"/>
     </row>
     <row r="31" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B31" s="276"/>
-      <c r="C31" s="432"/>
-      <c r="D31" s="433"/>
-      <c r="E31" s="432"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="432"/>
-      <c r="H31" s="433"/>
+      <c r="C31" s="439"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="440"/>
       <c r="I31" s="352"/>
       <c r="J31" s="353"/>
-      <c r="K31" s="432"/>
-      <c r="L31" s="433"/>
-      <c r="M31" s="432"/>
-      <c r="N31" s="433"/>
+      <c r="K31" s="439"/>
+      <c r="L31" s="440"/>
+      <c r="M31" s="439"/>
+      <c r="N31" s="440"/>
     </row>
     <row r="32" spans="2:14" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B32" s="279"/>
-      <c r="C32" s="434"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="434"/>
-      <c r="F32" s="435"/>
-      <c r="G32" s="434"/>
-      <c r="H32" s="435"/>
+      <c r="C32" s="441"/>
+      <c r="D32" s="442"/>
+      <c r="E32" s="441"/>
+      <c r="F32" s="442"/>
+      <c r="G32" s="441"/>
+      <c r="H32" s="442"/>
       <c r="I32" s="354"/>
       <c r="J32" s="355"/>
-      <c r="K32" s="434"/>
-      <c r="L32" s="435"/>
-      <c r="M32" s="434"/>
-      <c r="N32" s="435"/>
+      <c r="K32" s="441"/>
+      <c r="L32" s="442"/>
+      <c r="M32" s="441"/>
+      <c r="N32" s="442"/>
     </row>
     <row r="33" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B33" s="277"/>
-      <c r="C33" s="386"/>
-      <c r="D33" s="387"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="386"/>
-      <c r="H33" s="387"/>
+      <c r="C33" s="377"/>
+      <c r="D33" s="378"/>
+      <c r="E33" s="377"/>
+      <c r="F33" s="378"/>
+      <c r="G33" s="377"/>
+      <c r="H33" s="378"/>
       <c r="I33" s="344"/>
       <c r="J33" s="345"/>
-      <c r="K33" s="386"/>
-      <c r="L33" s="387"/>
-      <c r="M33" s="386"/>
-      <c r="N33" s="387"/>
+      <c r="K33" s="377"/>
+      <c r="L33" s="378"/>
+      <c r="M33" s="377"/>
+      <c r="N33" s="378"/>
     </row>
     <row r="34" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="279"/>
-      <c r="C34" s="422"/>
-      <c r="D34" s="423"/>
-      <c r="E34" s="422"/>
-      <c r="F34" s="423"/>
-      <c r="G34" s="422"/>
-      <c r="H34" s="423"/>
+      <c r="C34" s="435"/>
+      <c r="D34" s="436"/>
+      <c r="E34" s="435"/>
+      <c r="F34" s="436"/>
+      <c r="G34" s="435"/>
+      <c r="H34" s="436"/>
       <c r="I34" s="348"/>
       <c r="J34" s="349"/>
-      <c r="K34" s="422"/>
-      <c r="L34" s="423"/>
-      <c r="M34" s="422"/>
-      <c r="N34" s="423"/>
+      <c r="K34" s="435"/>
+      <c r="L34" s="436"/>
+      <c r="M34" s="435"/>
+      <c r="N34" s="436"/>
     </row>
     <row r="35" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B35" s="277"/>
-      <c r="C35" s="386"/>
-      <c r="D35" s="387"/>
-      <c r="E35" s="386"/>
-      <c r="F35" s="387"/>
-      <c r="G35" s="386"/>
-      <c r="H35" s="387"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="377"/>
+      <c r="F35" s="378"/>
+      <c r="G35" s="377"/>
+      <c r="H35" s="378"/>
       <c r="I35" s="344"/>
       <c r="J35" s="345"/>
-      <c r="K35" s="386"/>
-      <c r="L35" s="387"/>
-      <c r="M35" s="386"/>
-      <c r="N35" s="387"/>
+      <c r="K35" s="377"/>
+      <c r="L35" s="378"/>
+      <c r="M35" s="377"/>
+      <c r="N35" s="378"/>
     </row>
     <row r="36" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B36" s="280"/>
-      <c r="C36" s="436"/>
-      <c r="D36" s="437"/>
-      <c r="E36" s="436"/>
-      <c r="F36" s="437"/>
-      <c r="G36" s="436"/>
-      <c r="H36" s="437"/>
+      <c r="C36" s="433"/>
+      <c r="D36" s="434"/>
+      <c r="E36" s="433"/>
+      <c r="F36" s="434"/>
+      <c r="G36" s="433"/>
+      <c r="H36" s="434"/>
       <c r="I36" s="346"/>
       <c r="J36" s="347"/>
-      <c r="K36" s="436"/>
-      <c r="L36" s="437"/>
-      <c r="M36" s="436"/>
-      <c r="N36" s="437"/>
+      <c r="K36" s="433"/>
+      <c r="L36" s="434"/>
+      <c r="M36" s="433"/>
+      <c r="N36" s="434"/>
     </row>
     <row r="37" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37" s="343" t="s">
@@ -23505,102 +23514,50 @@
     <row r="86" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:M2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
@@ -23625,50 +23582,102 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
